--- a/tools/commiteeMembers.xlsx
+++ b/tools/commiteeMembers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leyau\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DD0FF5-68D0-41E9-97D9-E717982066D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2A4135-1787-45F4-A9D0-B916073432D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="953">
   <si>
     <t>#</t>
   </si>
@@ -2700,6 +2700,196 @@
   </si>
   <si>
     <t>https://scholar.googleusercontent.com/citations?view_op=view_photo&amp;user=Wuq5F8MAAAAJ&amp;citpid=2</t>
+  </si>
+  <si>
+    <t>https://scholar.google.it/citations?user=8Z20aIMAAAAJ&amp;hl=it</t>
+  </si>
+  <si>
+    <t>https://apps.ualberta.ca/directory/person/bezemer</t>
+  </si>
+  <si>
+    <t>https://www.monash.edu/it/humanise-lab/about-us/our-students/current-monash-students/tingtin-bi</t>
+  </si>
+  <si>
+    <t>https://research.jetbrains.org/researchers/timofey.bryksin/</t>
+  </si>
+  <si>
+    <t>https://jinfuchen.github.io/jinfu/</t>
+  </si>
+  <si>
+    <t>https://cs.nju.edu.cn/chenlin/index.htm</t>
+  </si>
+  <si>
+    <t>https://sites.google.com/site/ejchoi710/</t>
+  </si>
+  <si>
+    <t>https://informatics.tuwien.ac.at/people/juergen-cito</t>
+  </si>
+  <si>
+    <t>https://www.cs.usask.ca/faculty/zadiacodabux/</t>
+  </si>
+  <si>
+    <t>https://wwwfr.uni.lu/layout/set/print/snt/people/maxime_cordy</t>
+  </si>
+  <si>
+    <t>https://www.brunel.ac.uk/people/steve-counsell</t>
+  </si>
+  <si>
+    <t>https://diegoeliascosta.github.io/</t>
+  </si>
+  <si>
+    <t>https://www.uni-trier.de/index.php?id=3569</t>
+  </si>
+  <si>
+    <t>https://xiaoningdu.github.io/</t>
+  </si>
+  <si>
+    <t>https://www.cristal.univ-lille.fr/~etien/</t>
+  </si>
+  <si>
+    <t>https://cse.umn.edu/cs/mattia-fazzini</t>
+  </si>
+  <si>
+    <t>https://fengyang-nju.github.io/</t>
+  </si>
+  <si>
+    <t>https://dfucci.github.io/</t>
+  </si>
+  <si>
+    <t>https://sites.google.com/view/sanondagupta147/sanonda-datta-gupta</t>
+  </si>
+  <si>
+    <t>https://gyimothy.sed.hu/</t>
+  </si>
+  <si>
+    <t>https://habchisarra.github.io/</t>
+  </si>
+  <si>
+    <t>https://pinjiahe.github.io/</t>
+  </si>
+  <si>
+    <t>http://hematimoghadam.faculty.vru.ac.ir/?part=menu&amp;inc=menu&amp;id=118</t>
+  </si>
+  <si>
+    <t>https://cmps.ok.ubc.ca/about/contact/fatemeh-hendijani-fard/</t>
+  </si>
+  <si>
+    <t>https://xing-hu.github.io/</t>
+  </si>
+  <si>
+    <t>http://sei.buaa.edu.cn/info/1082/1121.htm</t>
+  </si>
+  <si>
+    <t>https://kanghj.github.io/</t>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mkechagia.github.io/</t>
+  </si>
+  <si>
+    <t>https://researchers.uq.edu.au/researcher/30167</t>
+  </si>
+  <si>
+    <t>https://vovak.me/</t>
+  </si>
+  <si>
+    <t>https://raux.github.io/</t>
+  </si>
+  <si>
+    <t>https://lamothemax.github.io/</t>
+  </si>
+  <si>
+    <t>http://www.cse.cqu.edu.cn/info/2096/4505.htm</t>
+  </si>
+  <si>
+    <t>http://sei.pku.edu.cn/~lige/</t>
+  </si>
+  <si>
+    <t>https://lilicoding.github.io/</t>
+  </si>
+  <si>
+    <t>https://lx0704.github.io/</t>
+  </si>
+  <si>
+    <t>https://binlin.info/</t>
+  </si>
+  <si>
+    <t>https://liuhuigmail.github.io/</t>
+  </si>
+  <si>
+    <t>https://person.zju.edu.cn/en/liuzhongxin</t>
+  </si>
+  <si>
+    <t>https://yilinglou.github.io/</t>
+  </si>
+  <si>
+    <t>https://www4.comp.polyu.edu.hk/~csxluo/</t>
+  </si>
+  <si>
+    <t>https://mkaouer.net/author/mohamed-wiem-mkaouer/</t>
+  </si>
+  <si>
+    <t>http://www.ranmo.site/</t>
+  </si>
+  <si>
+    <t>https://sites.google.com/site/ouniaali/home</t>
+  </si>
+  <si>
+    <t>https://lucapascarella.com/</t>
+  </si>
+  <si>
+    <t>https://collab.di.uniba.it/luigi-quaranta/</t>
+  </si>
+  <si>
+    <t>https://www.fujitsu.com/us/about/businesspolicy/tech/rd/research-staff/ripon.html</t>
+  </si>
+  <si>
+    <t>https://msayagh.github.io/</t>
+  </si>
+  <si>
+    <t>https://allisonius.github.io/</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=PIBtljkAAAAJ&amp;hl=zh-CN</t>
+  </si>
+  <si>
+    <t>https://home.cse.ust.hk/~shuaiw/</t>
+  </si>
+  <si>
+    <t>https://wangying-neu.github.io/</t>
+  </si>
+  <si>
+    <t>https://people.ucas.ac.cn/~weijun</t>
+  </si>
+  <si>
+    <t>https://faculty.stevens.edu/lxiao6</t>
+  </si>
+  <si>
+    <t>https://xiaoyuanxie.github.io/</t>
+  </si>
+  <si>
+    <t>http://www.cse.cqu.edu.cn/info/2095/5040.htm</t>
+  </si>
+  <si>
+    <t>https://jinqiuyang.github.io/</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=-qRba7AAAAAJ&amp;hl=it</t>
+  </si>
+  <si>
+    <t>https://www.cs.sjtu.edu.cn/~zhonghao/</t>
+  </si>
+  <si>
+    <t>http://yiikou.com/jiayuan/about/</t>
+  </si>
+  <si>
+    <t>https://www.eecg.utoronto.ca/~shuruiz/</t>
+  </si>
+  <si>
+    <t>http://faculty.nuaa.edu.cn/zhouyu/en/index.htm</t>
   </si>
 </sst>
 </file>
@@ -3249,8 +3439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I169" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="L177" sqref="L177"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H181" sqref="H181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3261,11 +3451,11 @@
     <col min="5" max="5" width="32.42578125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="60" customWidth="1"/>
-    <col min="8" max="8" width="52.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="2" customWidth="1"/>
+    <col min="8" max="8" width="134.42578125" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="96.85546875" customWidth="1"/>
+    <col min="12" max="12" width="98.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="44.25" x14ac:dyDescent="0.2">
@@ -3404,7 +3594,9 @@
       <c r="G4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>890</v>
+      </c>
       <c r="I4" s="5" t="s">
         <v>16</v>
       </c>
@@ -3554,7 +3746,9 @@
       <c r="G8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>891</v>
+      </c>
       <c r="I8" s="5" t="s">
         <v>16</v>
       </c>
@@ -3590,7 +3784,9 @@
       <c r="G9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>892</v>
+      </c>
       <c r="I9" s="6" t="s">
         <v>16</v>
       </c>
@@ -3664,7 +3860,9 @@
       <c r="G11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="I11" s="6" t="s">
         <v>16</v>
       </c>
@@ -4004,7 +4202,9 @@
       <c r="G20" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>894</v>
+      </c>
       <c r="I20" s="5" t="s">
         <v>16</v>
       </c>
@@ -4078,7 +4278,9 @@
       <c r="G22" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>895</v>
+      </c>
       <c r="I22" s="5" t="s">
         <v>16</v>
       </c>
@@ -4152,7 +4354,9 @@
       <c r="G24" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>896</v>
+      </c>
       <c r="I24" s="5" t="s">
         <v>16</v>
       </c>
@@ -4188,7 +4392,9 @@
       <c r="G25" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>897</v>
+      </c>
       <c r="I25" s="6" t="s">
         <v>16</v>
       </c>
@@ -4262,7 +4468,9 @@
       <c r="G27" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>898</v>
+      </c>
       <c r="I27" s="6" t="s">
         <v>16</v>
       </c>
@@ -4298,7 +4506,9 @@
       <c r="G28" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>899</v>
+      </c>
       <c r="I28" s="5" t="s">
         <v>16</v>
       </c>
@@ -4372,7 +4582,9 @@
       <c r="G30" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H30" s="4"/>
+      <c r="H30" s="4" t="s">
+        <v>900</v>
+      </c>
       <c r="I30" s="5" t="s">
         <v>16</v>
       </c>
@@ -4408,7 +4620,9 @@
       <c r="G31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="3"/>
+      <c r="H31" s="3" t="s">
+        <v>901</v>
+      </c>
       <c r="I31" s="6" t="s">
         <v>16</v>
       </c>
@@ -4444,7 +4658,9 @@
       <c r="G32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="4"/>
+      <c r="H32" s="4" t="s">
+        <v>901</v>
+      </c>
       <c r="I32" s="5" t="s">
         <v>16</v>
       </c>
@@ -4708,7 +4924,9 @@
       <c r="G39" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="H39" s="3"/>
+      <c r="H39" s="3" t="s">
+        <v>902</v>
+      </c>
       <c r="I39" s="6" t="s">
         <v>16</v>
       </c>
@@ -4782,7 +5000,9 @@
       <c r="G41" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H41" s="3"/>
+      <c r="H41" s="3" t="s">
+        <v>903</v>
+      </c>
       <c r="I41" s="6" t="s">
         <v>16</v>
       </c>
@@ -4894,7 +5114,9 @@
       <c r="G44" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H44" s="4"/>
+      <c r="H44" s="4" t="s">
+        <v>904</v>
+      </c>
       <c r="I44" s="5" t="s">
         <v>16</v>
       </c>
@@ -4930,7 +5152,9 @@
       <c r="G45" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H45" s="3"/>
+      <c r="H45" s="3" t="s">
+        <v>905</v>
+      </c>
       <c r="I45" s="6" t="s">
         <v>16</v>
       </c>
@@ -4966,7 +5190,9 @@
       <c r="G46" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="H46" s="4"/>
+      <c r="H46" s="4" t="s">
+        <v>906</v>
+      </c>
       <c r="I46" s="5" t="s">
         <v>16</v>
       </c>
@@ -5040,7 +5266,9 @@
       <c r="G48" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="H48" s="4"/>
+      <c r="H48" s="4" t="s">
+        <v>907</v>
+      </c>
       <c r="I48" s="5" t="s">
         <v>16</v>
       </c>
@@ -5304,7 +5532,9 @@
       <c r="G55" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="H55" s="3"/>
+      <c r="H55" s="3" t="s">
+        <v>908</v>
+      </c>
       <c r="I55" s="6" t="s">
         <v>16</v>
       </c>
@@ -5340,7 +5570,9 @@
       <c r="G56" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="H56" s="4"/>
+      <c r="H56" s="4" t="s">
+        <v>909</v>
+      </c>
       <c r="I56" s="5" t="s">
         <v>16</v>
       </c>
@@ -5376,7 +5608,9 @@
       <c r="G57" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="H57" s="3"/>
+      <c r="H57" s="3" t="s">
+        <v>910</v>
+      </c>
       <c r="I57" s="6" t="s">
         <v>16</v>
       </c>
@@ -5488,7 +5722,9 @@
       <c r="G60" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="H60" s="4"/>
+      <c r="H60" s="4" t="s">
+        <v>911</v>
+      </c>
       <c r="I60" s="5" t="s">
         <v>16</v>
       </c>
@@ -5524,7 +5760,9 @@
       <c r="G61" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="H61" s="3"/>
+      <c r="H61" s="3" t="s">
+        <v>911</v>
+      </c>
       <c r="I61" s="6" t="s">
         <v>16</v>
       </c>
@@ -5560,7 +5798,9 @@
       <c r="G62" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="H62" s="4"/>
+      <c r="H62" s="4" t="s">
+        <v>912</v>
+      </c>
       <c r="I62" s="5" t="s">
         <v>16</v>
       </c>
@@ -5596,7 +5836,9 @@
       <c r="G63" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="H63" s="3"/>
+      <c r="H63" s="3" t="s">
+        <v>913</v>
+      </c>
       <c r="I63" s="6" t="s">
         <v>16</v>
       </c>
@@ -5784,7 +6026,9 @@
       <c r="G68" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H68" s="4"/>
+      <c r="H68" s="4" t="s">
+        <v>914</v>
+      </c>
       <c r="I68" s="5" t="s">
         <v>16</v>
       </c>
@@ -5932,7 +6176,9 @@
       <c r="G72" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="H72" s="4"/>
+      <c r="H72" s="4" t="s">
+        <v>915</v>
+      </c>
       <c r="I72" s="5" t="s">
         <v>16</v>
       </c>
@@ -6006,7 +6252,9 @@
       <c r="G74" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="H74" s="14"/>
+      <c r="H74" s="14" t="s">
+        <v>917</v>
+      </c>
       <c r="I74" s="15" t="s">
         <v>16</v>
       </c>
@@ -6118,7 +6366,9 @@
       <c r="G77" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="H77" s="3"/>
+      <c r="H77" s="3" t="s">
+        <v>916</v>
+      </c>
       <c r="I77" s="6" t="s">
         <v>16</v>
       </c>
@@ -6230,7 +6480,9 @@
       <c r="G80" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="H80" s="4"/>
+      <c r="H80" s="4" t="s">
+        <v>918</v>
+      </c>
       <c r="I80" s="5" t="s">
         <v>16</v>
       </c>
@@ -6342,7 +6594,9 @@
       <c r="G83" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="H83" s="3"/>
+      <c r="H83" s="3" t="s">
+        <v>919</v>
+      </c>
       <c r="I83" s="6" t="s">
         <v>16</v>
       </c>
@@ -6378,7 +6632,9 @@
       <c r="G84" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H84" s="4"/>
+      <c r="H84" s="4" t="s">
+        <v>920</v>
+      </c>
       <c r="I84" s="5" t="s">
         <v>16</v>
       </c>
@@ -6414,7 +6670,9 @@
       <c r="G85" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H85" s="3"/>
+      <c r="H85" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="I85" s="6" t="s">
         <v>16</v>
       </c>
@@ -6488,7 +6746,9 @@
       <c r="G87" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="H87" s="3"/>
+      <c r="H87" s="3" t="s">
+        <v>921</v>
+      </c>
       <c r="I87" s="6" t="s">
         <v>16</v>
       </c>
@@ -6524,7 +6784,9 @@
       <c r="G88" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="H88" s="4"/>
+      <c r="H88" s="4" t="s">
+        <v>922</v>
+      </c>
       <c r="I88" s="5" t="s">
         <v>16</v>
       </c>
@@ -6560,7 +6822,9 @@
       <c r="G89" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="H89" s="3"/>
+      <c r="H89" s="3" t="s">
+        <v>922</v>
+      </c>
       <c r="I89" s="6" t="s">
         <v>16</v>
       </c>
@@ -6634,7 +6898,9 @@
       <c r="G91" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="H91" s="3"/>
+      <c r="H91" s="3" t="s">
+        <v>923</v>
+      </c>
       <c r="I91" s="6" t="s">
         <v>16</v>
       </c>
@@ -6708,7 +6974,9 @@
       <c r="G93" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="H93" s="3"/>
+      <c r="H93" s="3" t="s">
+        <v>924</v>
+      </c>
       <c r="I93" s="6" t="s">
         <v>16</v>
       </c>
@@ -6744,7 +7012,9 @@
       <c r="G94" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H94" s="4"/>
+      <c r="H94" s="4" t="s">
+        <v>925</v>
+      </c>
       <c r="I94" s="5" t="s">
         <v>16</v>
       </c>
@@ -6780,7 +7050,9 @@
       <c r="G95" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H95" s="3"/>
+      <c r="H95" s="3" t="s">
+        <v>925</v>
+      </c>
       <c r="I95" s="6" t="s">
         <v>398</v>
       </c>
@@ -6816,7 +7088,9 @@
       <c r="G96" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="H96" s="4"/>
+      <c r="H96" s="4" t="s">
+        <v>926</v>
+      </c>
       <c r="I96" s="5" t="s">
         <v>16</v>
       </c>
@@ -6852,7 +7126,9 @@
       <c r="G97" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="H97" s="3"/>
+      <c r="H97" s="3" t="s">
+        <v>927</v>
+      </c>
       <c r="I97" s="6" t="s">
         <v>16</v>
       </c>
@@ -6926,7 +7202,9 @@
       <c r="G99" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="H99" s="3"/>
+      <c r="H99" s="3" t="s">
+        <v>928</v>
+      </c>
       <c r="I99" s="6" t="s">
         <v>16</v>
       </c>
@@ -6962,7 +7240,9 @@
       <c r="G100" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H100" s="4"/>
+      <c r="H100" s="4" t="s">
+        <v>929</v>
+      </c>
       <c r="I100" s="5" t="s">
         <v>16</v>
       </c>
@@ -6998,7 +7278,9 @@
       <c r="G101" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H101" s="3"/>
+      <c r="H101" s="3" t="s">
+        <v>929</v>
+      </c>
       <c r="I101" s="6" t="s">
         <v>16</v>
       </c>
@@ -7110,7 +7392,9 @@
       <c r="G104" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="H104" s="4"/>
+      <c r="H104" s="4" t="s">
+        <v>930</v>
+      </c>
       <c r="I104" s="5" t="s">
         <v>16</v>
       </c>
@@ -7146,7 +7430,9 @@
       <c r="G105" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="H105" s="3"/>
+      <c r="H105" s="3" t="s">
+        <v>931</v>
+      </c>
       <c r="I105" s="6" t="s">
         <v>398</v>
       </c>
@@ -7372,7 +7658,9 @@
       <c r="G111" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="H111" s="3"/>
+      <c r="H111" s="3" t="s">
+        <v>932</v>
+      </c>
       <c r="I111" s="6" t="s">
         <v>16</v>
       </c>
@@ -7408,7 +7696,9 @@
       <c r="G112" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="H112" s="4"/>
+      <c r="H112" s="4" t="s">
+        <v>933</v>
+      </c>
       <c r="I112" s="5" t="s">
         <v>16</v>
       </c>
@@ -7748,7 +8038,9 @@
       <c r="G121" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="H121" s="3"/>
+      <c r="H121" s="3" t="s">
+        <v>934</v>
+      </c>
       <c r="I121" s="6" t="s">
         <v>16</v>
       </c>
@@ -7860,7 +8152,9 @@
       <c r="G124" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="H124" s="4"/>
+      <c r="H124" s="4" t="s">
+        <v>935</v>
+      </c>
       <c r="I124" s="5" t="s">
         <v>16</v>
       </c>
@@ -8010,7 +8304,9 @@
       <c r="G128" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="H128" s="4"/>
+      <c r="H128" s="4" t="s">
+        <v>936</v>
+      </c>
       <c r="I128" s="5" t="s">
         <v>16</v>
       </c>
@@ -8312,7 +8608,9 @@
       <c r="G136" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="H136" s="4"/>
+      <c r="H136" s="4" t="s">
+        <v>937</v>
+      </c>
       <c r="I136" s="5" t="s">
         <v>16</v>
       </c>
@@ -8348,7 +8646,9 @@
       <c r="G137" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="H137" s="3"/>
+      <c r="H137" s="3" t="s">
+        <v>938</v>
+      </c>
       <c r="I137" s="6" t="s">
         <v>16</v>
       </c>
@@ -8574,7 +8874,9 @@
       <c r="G143" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="H143" s="3"/>
+      <c r="H143" s="3" t="s">
+        <v>939</v>
+      </c>
       <c r="I143" s="6" t="s">
         <v>16</v>
       </c>
@@ -8800,7 +9102,9 @@
       <c r="G149" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="H149" s="3"/>
+      <c r="H149" s="3" t="s">
+        <v>940</v>
+      </c>
       <c r="I149" s="6" t="s">
         <v>16</v>
       </c>
@@ -8836,7 +9140,9 @@
       <c r="G150" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="H150" s="4"/>
+      <c r="H150" s="4" t="s">
+        <v>941</v>
+      </c>
       <c r="I150" s="5" t="s">
         <v>16</v>
       </c>
@@ -8910,7 +9216,9 @@
       <c r="G152" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="H152" s="4"/>
+      <c r="H152" s="4" t="s">
+        <v>942</v>
+      </c>
       <c r="I152" s="5" t="s">
         <v>398</v>
       </c>
@@ -8946,7 +9254,9 @@
       <c r="G153" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="H153" s="3"/>
+      <c r="H153" s="3" t="s">
+        <v>943</v>
+      </c>
       <c r="I153" s="6" t="s">
         <v>16</v>
       </c>
@@ -9058,7 +9368,9 @@
       <c r="G156" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="H156" s="4"/>
+      <c r="H156" s="4" t="s">
+        <v>944</v>
+      </c>
       <c r="I156" s="5" t="s">
         <v>16</v>
       </c>
@@ -9132,7 +9444,9 @@
       <c r="G158" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="H158" s="4"/>
+      <c r="H158" s="4" t="s">
+        <v>945</v>
+      </c>
       <c r="I158" s="5" t="s">
         <v>16</v>
       </c>
@@ -9168,7 +9482,9 @@
       <c r="G159" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="H159" s="3"/>
+      <c r="H159" s="3" t="s">
+        <v>945</v>
+      </c>
       <c r="I159" s="6" t="s">
         <v>398</v>
       </c>
@@ -9242,7 +9558,9 @@
       <c r="G161" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="H161" s="3"/>
+      <c r="H161" s="3" t="s">
+        <v>946</v>
+      </c>
       <c r="I161" s="6" t="s">
         <v>16</v>
       </c>
@@ -9278,7 +9596,9 @@
       <c r="G162" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="H162" s="4"/>
+      <c r="H162" s="4" t="s">
+        <v>946</v>
+      </c>
       <c r="I162" s="5" t="s">
         <v>16</v>
       </c>
@@ -9314,7 +9634,9 @@
       <c r="G163" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H163" s="3"/>
+      <c r="H163" s="3" t="s">
+        <v>947</v>
+      </c>
       <c r="I163" s="6" t="s">
         <v>16</v>
       </c>
@@ -9350,7 +9672,9 @@
       <c r="G164" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H164" s="4"/>
+      <c r="H164" s="4" t="s">
+        <v>947</v>
+      </c>
       <c r="I164" s="5" t="s">
         <v>398</v>
       </c>
@@ -9386,7 +9710,9 @@
       <c r="G165" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H165" s="3"/>
+      <c r="H165" s="3" t="s">
+        <v>947</v>
+      </c>
       <c r="I165" s="6" t="s">
         <v>16</v>
       </c>
@@ -9498,7 +9824,9 @@
       <c r="G168" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="H168" s="4"/>
+      <c r="H168" s="4" t="s">
+        <v>948</v>
+      </c>
       <c r="I168" s="5" t="s">
         <v>16</v>
       </c>
@@ -9872,7 +10200,9 @@
       <c r="G178" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="H178" s="4"/>
+      <c r="H178" s="4" t="s">
+        <v>949</v>
+      </c>
       <c r="I178" s="5" t="s">
         <v>16</v>
       </c>
@@ -9908,7 +10238,9 @@
       <c r="G179" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="H179" s="3"/>
+      <c r="H179" s="3" t="s">
+        <v>950</v>
+      </c>
       <c r="I179" s="6" t="s">
         <v>16</v>
       </c>
@@ -9944,7 +10276,9 @@
       <c r="G180" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="H180" s="4"/>
+      <c r="H180" s="4" t="s">
+        <v>951</v>
+      </c>
       <c r="I180" s="5" t="s">
         <v>16</v>
       </c>
@@ -9980,7 +10314,9 @@
       <c r="G181" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="H181" s="3"/>
+      <c r="H181" s="3" t="s">
+        <v>952</v>
+      </c>
       <c r="I181" s="6" t="s">
         <v>16</v>
       </c>

--- a/tools/commiteeMembers.xlsx
+++ b/tools/commiteeMembers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leyau\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/devil/Documents/saner2023/Tool_demo_track/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2A4135-1787-45F4-A9D0-B916073432D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F297D953-CBF3-524F-B0F6-F9189DBB1519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program committee" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="1059">
   <si>
     <t>#</t>
   </si>
@@ -2501,9 +2501,6 @@
     <t>https://saner2022.uom.gr/img/team/YLou.jpg</t>
   </si>
   <si>
-    <t>https://www.polyu.edu.hk/comp/-/media/department/comp/people/luo-xiapu-daniel.jpg?bc=ffffff&amp;h=430&amp;w=280&amp;hash=808006A0D104309BD95BCFD6FE710797</t>
-  </si>
-  <si>
     <t>https://lh3.googleusercontent.com/Bq3ZC6VYWUSGufFRF9SUCpDuuM3Gpw6JKQ4j82Z_UK9LAX4QlCnXIwkoinijXJR2x0aKwP6bxI7D57OwJpZhuZ2SLQJvakP0hCdPARQztR5wUPxkU26YaNm1Xug9qrgt5Q=w1280</t>
   </si>
   <si>
@@ -2637,9 +2634,6 @@
   </si>
   <si>
     <t>https://www.eecs.yorku.ca/~wangsong/ccs/Song-Wang.jpg</t>
-  </si>
-  <si>
-    <t>https://saner2022.uom.gr/img/team/YWang.jpg</t>
   </si>
   <si>
     <t>https://saner2022.uom.gr/img/team/JWei.jpg</t>
@@ -2826,77 +2820,480 @@
     <t>https://yilinglou.github.io/</t>
   </si>
   <si>
+    <t>https://mkaouer.net/author/mohamed-wiem-mkaouer/</t>
+  </si>
+  <si>
+    <t>http://www.ranmo.site/</t>
+  </si>
+  <si>
+    <t>https://sites.google.com/site/ouniaali/home</t>
+  </si>
+  <si>
+    <t>https://lucapascarella.com/</t>
+  </si>
+  <si>
+    <t>https://collab.di.uniba.it/luigi-quaranta/</t>
+  </si>
+  <si>
+    <t>https://www.fujitsu.com/us/about/businesspolicy/tech/rd/research-staff/ripon.html</t>
+  </si>
+  <si>
+    <t>https://msayagh.github.io/</t>
+  </si>
+  <si>
+    <t>https://allisonius.github.io/</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=PIBtljkAAAAJ&amp;hl=zh-CN</t>
+  </si>
+  <si>
+    <t>https://home.cse.ust.hk/~shuaiw/</t>
+  </si>
+  <si>
+    <t>https://people.ucas.ac.cn/~weijun</t>
+  </si>
+  <si>
+    <t>https://faculty.stevens.edu/lxiao6</t>
+  </si>
+  <si>
+    <t>https://xiaoyuanxie.github.io/</t>
+  </si>
+  <si>
+    <t>http://www.cse.cqu.edu.cn/info/2095/5040.htm</t>
+  </si>
+  <si>
+    <t>https://jinqiuyang.github.io/</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=-qRba7AAAAAJ&amp;hl=it</t>
+  </si>
+  <si>
+    <t>https://www.cs.sjtu.edu.cn/~zhonghao/</t>
+  </si>
+  <si>
+    <t>http://yiikou.com/jiayuan/about/</t>
+  </si>
+  <si>
+    <t>https://www.eecg.utoronto.ca/~shuruiz/</t>
+  </si>
+  <si>
+    <t>http://faculty.nuaa.edu.cn/zhouyu/en/index.htm</t>
+  </si>
+  <si>
+    <t>Zhenpeng</t>
+  </si>
+  <si>
+    <t>Huiyan</t>
+  </si>
+  <si>
+    <t>Heqing</t>
+  </si>
+  <si>
+    <t>Zhouyang</t>
+  </si>
+  <si>
+    <t>Chunyong</t>
+  </si>
+  <si>
+    <t>Ming</t>
+  </si>
+  <si>
+    <t>Peng</t>
+  </si>
+  <si>
+    <t>Kaifeng</t>
+  </si>
+  <si>
+    <t>Amjed</t>
+  </si>
+  <si>
+    <t>Amleto</t>
+  </si>
+  <si>
+    <t>Xian</t>
+  </si>
+  <si>
+    <t>Yuxia</t>
+  </si>
+  <si>
+    <t>Yuqun</t>
+  </si>
+  <si>
+    <t>Christoph</t>
+  </si>
+  <si>
+    <t>Tan</t>
+  </si>
+  <si>
+    <t>Jia</t>
+  </si>
+  <si>
+    <t>Shi</t>
+  </si>
+  <si>
+    <t>Chong</t>
+  </si>
+  <si>
+    <t>Fan</t>
+  </si>
+  <si>
+    <t>Liang</t>
+  </si>
+  <si>
+    <t>Ye</t>
+  </si>
+  <si>
+    <t>Tahir</t>
+  </si>
+  <si>
+    <t>Di Salle</t>
+  </si>
+  <si>
+    <t>Zhan</t>
+  </si>
+  <si>
+    <t>Treude</t>
+  </si>
+  <si>
+    <t>ISCAS</t>
+  </si>
+  <si>
+    <t>Department of Computer Science and Technology, Xi'an Jiaotong University</t>
+  </si>
+  <si>
+    <t>Nanjing University of Science and Technology</t>
+  </si>
+  <si>
+    <t>Massey University</t>
+  </si>
+  <si>
+    <r>
+      <t>Universit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>à</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> della Svizzera italiana</t>
+    </r>
+  </si>
+  <si>
+    <t>University of L'Aquila</t>
+  </si>
+  <si>
+    <t>The Hong Kong Polytechnic University</t>
+  </si>
+  <si>
+    <t>Southern University of Science and Technology</t>
+  </si>
+  <si>
+    <t>The University of Melbourne</t>
+  </si>
+  <si>
+    <t>zp.chen@ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>why@nju.edu.cn</t>
+  </si>
+  <si>
+    <t>xintan@buaa.edu.cn</t>
+  </si>
+  <si>
+    <t>hhuangaz@cse.ust.hk</t>
+  </si>
+  <si>
+    <t>jiazhouyang@nudt.edu.cn</t>
+  </si>
+  <si>
+    <t>shilin@iscas.ac.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chong.chunyong@monash.edu </t>
+  </si>
+  <si>
+    <t>mingfan@xjtu.edu.cn</t>
+  </si>
+  <si>
+    <t>pliangeng@gmail.com</t>
+  </si>
+  <si>
+    <t>kaifeng.h@icloud.com</t>
+  </si>
+  <si>
+    <t>heye@kth.se</t>
+  </si>
+  <si>
+    <t>a.tahir@massey.ac.nz</t>
+  </si>
+  <si>
+    <t>amleto.disalle@univaq.it</t>
+  </si>
+  <si>
+    <t>qqxuelei@Gmail.com</t>
+  </si>
+  <si>
+    <t>zhanx@sustech.edu.cn</t>
+  </si>
+  <si>
+    <t>yuxiazh@bit.edu.cn</t>
+  </si>
+  <si>
+    <t>zhangyq@sustech.edu.cn</t>
+  </si>
+  <si>
+    <t>ctreude@gmail.com</t>
+  </si>
+  <si>
     <t>https://www4.comp.polyu.edu.hk/~csxluo/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wangying-neu.github.io/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://chenzhenpeng18.github.io/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.why.ink:8080/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sites.google.com/view/xintan/homepage</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://5hadowblad3.github.io/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=KnO6jVAAAAAJ&amp;hl=en</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ranmo.site/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://people.ucas.edu.cn/~shilin?language=en</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.monash.edu.my/it/staff/academic/dr-chong-chun-yong</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gr.xjtu.edu.cn/en/web/mingfan/home</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cs.rug.nl/search/People/PengLiang</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kaifeng-h.github.io/#home</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kth.se/profile/heye</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chrisyttang.org</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>https://mkaouer.net/author/mohamed-wiem-mkaouer/</t>
-  </si>
-  <si>
-    <t>http://www.ranmo.site/</t>
-  </si>
-  <si>
-    <t>https://sites.google.com/site/ouniaali/home</t>
-  </si>
-  <si>
-    <t>https://lucapascarella.com/</t>
-  </si>
-  <si>
-    <t>https://collab.di.uniba.it/luigi-quaranta/</t>
-  </si>
-  <si>
-    <t>https://www.fujitsu.com/us/about/businesspolicy/tech/rd/research-staff/ripon.html</t>
-  </si>
-  <si>
-    <t>https://msayagh.github.io/</t>
-  </si>
-  <si>
-    <t>https://allisonius.github.io/</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=PIBtljkAAAAJ&amp;hl=zh-CN</t>
-  </si>
-  <si>
-    <t>https://home.cse.ust.hk/~shuaiw/</t>
-  </si>
-  <si>
-    <t>https://wangying-neu.github.io/</t>
-  </si>
-  <si>
-    <t>https://people.ucas.ac.cn/~weijun</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.massey.ac.nz/massey/expertise/profile.cfm?stref=481450</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://csnagy.github.io</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://people.disim.univaq.it/~amletodisalle/about.php</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://research.jetbrains.org/researchers/timofey.bryksin/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www4.comp.polyu.edu.hk/~leixue/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>https://faculty.stevens.edu/lxiao6</t>
-  </si>
-  <si>
-    <t>https://xiaoyuanxie.github.io/</t>
-  </si>
-  <si>
-    <t>http://www.cse.cqu.edu.cn/info/2095/5040.htm</t>
-  </si>
-  <si>
-    <t>https://jinqiuyang.github.io/</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=-qRba7AAAAAJ&amp;hl=it</t>
-  </si>
-  <si>
-    <t>https://www.cs.sjtu.edu.cn/~zhonghao/</t>
-  </si>
-  <si>
-    <t>http://yiikou.com/jiayuan/about/</t>
-  </si>
-  <si>
-    <t>https://www.eecg.utoronto.ca/~shuruiz/</t>
-  </si>
-  <si>
-    <t>http://faculty.nuaa.edu.cn/zhouyu/en/index.htm</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=pp8eBTYAAAAJ&amp;hl=zh-CN</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sites.google.com/view/yuxia-zhang/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhangyuqun.com/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ctreude.ca/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.polyu.edu.hk/comp/-/media/department/comp/people/luo-xiapu-daniel.jpg?bc=ffffff&amp;h=430&amp;w=280&amp;hash=808006A0D104309BD95BCFD6FE710797</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://saner2022.uom.gr/img/team/YWang.jpg</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://chenzhenpeng18.github.io/portrait_new1.jpeg</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.why.ink:8080/static/pic/why-bali.jpg</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lh6.googleusercontent.com/gX9-zp3p2Hdhp7z4vcK2nQNItfuETu60HZEKTa1iF_dDN3VMHhF5G8lK15YNxoBOI87Su-xcrScgT6UQCWxefOpRwCrNbjIvzCADU9gG8e0AaEpf=w1280</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://5hadowblad3.github.io/images/me.jpeg</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://scholar.googleusercontent.com/citations?view_op=view_photo&amp;user=KnO6jVAAAAAJ&amp;citpid=1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://saner2022.uom.gr/img/team/RMo.jpg</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://people.ucas.edu.cn/self/img/1591b0e8-2be9-4eb0-b423-b2a1d63e0311.jpg</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.monash.edu.my/__data/assets/image/0006/1626594/Chong-Chun-Yong.png</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gr.xjtu.edu.cn/c/document_library/get_file?folderId=2694512&amp;name=DLFE-129016.jpg</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cs.rug.nl/search/uploads/People/PengLiang.jpg</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kaifeng-h.github.io/images/avatar.jpeg</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kth.se/files/avatar/heye</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.chrisyttang.org/assets/img/_chris.jpg</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://saner2022.uom.gr/img/team/MWMkaouer.jpg</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.massey.ac.nz/massey/fms/expertise/user_images/profile_054184_D4FA7A61-47B1-48D9-9F060E0B866FE859.jpg</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://saner2022.uom.gr/img/team/CNagy.jpg</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://people.disim.univaq.it/~amletodisalle/img/amleto.jpg</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://saner2022.uom.gr/img/team/TBryksin.jpg</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://scholar.googleusercontent.com/citations?view_op=view_photo&amp;user=59gKrsoAAAAJ&amp;citpid=4</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://saner2022.uom.gr/img/team/LXiao.jpg</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://conf.researchr.org/getProfileImage/zhanxian/72d168b2-ac93-4bac-b433-d09d9cb7c64c/small.jpg?1624183261000</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lh6.googleusercontent.com/hQrrTA1QzQIr80uFyPJbSggrUcoU8187PlojBbaofaXewWSorrqlb9fhiRo71oqCsIl9KFH7TD5BGprzC7qTe3mF3WhN0HAZyx3Lkw9a0-Z1QOmf=w1280</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhangyuqun.com/images/zhangyuqun.png</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ctreude.files.wordpress.com/2021/09/ctreude-1.jpg</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>National University of Defense Technology</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central China Normal University</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Zealand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2905,6 +3302,7 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2936,8 +3334,42 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2956,8 +3388,14 @@
         <bgColor indexed="47"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9F6EA"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2991,12 +3429,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3052,6 +3501,40 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3437,28 +3920,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L181"/>
+  <dimension ref="A1:L204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H181" sqref="H181"/>
+    <sheetView tabSelected="1" topLeftCell="H159" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J173" sqref="J173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="60" customWidth="1"/>
-    <col min="8" max="8" width="134.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="134.5" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="98.42578125" customWidth="1"/>
+    <col min="12" max="12" width="98.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="44.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="49">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3496,7 +3979,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="14">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3534,7 +4017,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="14">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3572,7 +4055,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="14">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3595,7 +4078,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>16</v>
@@ -3610,7 +4093,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="14">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3648,7 +4131,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="14">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3686,7 +4169,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="14">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3724,7 +4207,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="14">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3747,7 +4230,7 @@
         <v>47</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>16</v>
@@ -3762,7 +4245,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="14">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3785,7 +4268,7 @@
         <v>52</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>16</v>
@@ -3800,7 +4283,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="14">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3838,7 +4321,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="14">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3861,7 +4344,7 @@
         <v>63</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>16</v>
@@ -3876,7 +4359,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="28">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3914,7 +4397,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="14">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3952,7 +4435,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="14">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3990,7 +4473,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="14">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4028,7 +4511,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="14">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -4066,7 +4549,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="14">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -4104,7 +4587,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="14">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -4142,7 +4625,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="14">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -4180,7 +4663,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="14">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -4203,7 +4686,7 @@
         <v>99</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>16</v>
@@ -4218,7 +4701,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="14">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -4256,7 +4739,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="14">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -4279,7 +4762,7 @@
         <v>106</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>16</v>
@@ -4294,7 +4777,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="14">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -4332,7 +4815,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="14">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -4355,7 +4838,7 @@
         <v>114</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>16</v>
@@ -4370,7 +4853,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="14">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -4393,7 +4876,7 @@
         <v>119</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>16</v>
@@ -4408,7 +4891,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="14">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -4446,7 +4929,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="14">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -4469,7 +4952,7 @@
         <v>129</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>16</v>
@@ -4484,7 +4967,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="14">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -4507,7 +4990,7 @@
         <v>134</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>16</v>
@@ -4522,7 +5005,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="14">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -4560,7 +5043,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="14">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -4583,7 +5066,7 @@
         <v>145</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>16</v>
@@ -4598,7 +5081,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="14">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -4621,7 +5104,7 @@
         <v>21</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>16</v>
@@ -4636,7 +5119,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="14">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -4659,7 +5142,7 @@
         <v>21</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>16</v>
@@ -4674,7 +5157,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="14">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -4712,7 +5195,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="14">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -4750,7 +5233,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="14">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -4788,7 +5271,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="14">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -4826,7 +5309,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="14">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -4864,7 +5347,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="14">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4902,7 +5385,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="14">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -4925,7 +5408,7 @@
         <v>179</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>16</v>
@@ -4940,7 +5423,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="14">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4978,7 +5461,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="14">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -5001,7 +5484,7 @@
         <v>52</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>16</v>
@@ -5016,7 +5499,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="14">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -5054,7 +5537,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="14">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -5092,7 +5575,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="14">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -5115,7 +5598,7 @@
         <v>202</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>16</v>
@@ -5130,7 +5613,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="14">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -5153,7 +5636,7 @@
         <v>206</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>16</v>
@@ -5168,7 +5651,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="14">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -5191,7 +5674,7 @@
         <v>210</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>16</v>
@@ -5206,7 +5689,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="14">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -5244,7 +5727,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="14">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -5267,7 +5750,7 @@
         <v>219</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>16</v>
@@ -5282,7 +5765,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="14">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -5320,7 +5803,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="14">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -5358,7 +5841,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="14">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -5396,7 +5879,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="14">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -5434,7 +5917,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="14">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -5472,7 +5955,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="14">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -5510,7 +5993,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="14">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -5533,7 +6016,7 @@
         <v>249</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>16</v>
@@ -5548,7 +6031,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="14">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -5571,7 +6054,7 @@
         <v>253</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>16</v>
@@ -5586,7 +6069,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="14">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -5609,7 +6092,7 @@
         <v>257</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>16</v>
@@ -5624,7 +6107,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="14">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -5662,7 +6145,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="14">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -5700,7 +6183,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="14">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -5723,7 +6206,7 @@
         <v>271</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>16</v>
@@ -5738,7 +6221,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="14">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -5761,7 +6244,7 @@
         <v>271</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>16</v>
@@ -5776,7 +6259,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="14">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -5799,7 +6282,7 @@
         <v>275</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>16</v>
@@ -5814,7 +6297,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="14">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -5837,7 +6320,7 @@
         <v>279</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>16</v>
@@ -5852,7 +6335,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="14">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -5890,7 +6373,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="14">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -5928,7 +6411,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="14">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -5966,7 +6449,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="14">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -6004,7 +6487,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="14">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -6027,7 +6510,7 @@
         <v>32</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>16</v>
@@ -6042,7 +6525,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="14">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -6078,7 +6561,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="14">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -6116,7 +6599,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="14">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -6154,7 +6637,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="14">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -6177,7 +6660,7 @@
         <v>318</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>16</v>
@@ -6192,7 +6675,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="14">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -6230,7 +6713,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" s="17" customFormat="1" ht="14">
       <c r="A74" s="14">
         <v>73</v>
       </c>
@@ -6253,7 +6736,7 @@
         <v>325</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="I74" s="15" t="s">
         <v>16</v>
@@ -6268,7 +6751,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="14">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -6306,7 +6789,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="14">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -6344,7 +6827,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="14">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -6367,7 +6850,7 @@
         <v>321</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>16</v>
@@ -6382,7 +6865,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="14">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -6420,7 +6903,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="14">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -6458,7 +6941,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="14">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -6481,7 +6964,7 @@
         <v>275</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>16</v>
@@ -6496,7 +6979,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="14">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -6534,7 +7017,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="14">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -6572,7 +7055,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="14">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -6595,7 +7078,7 @@
         <v>364</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>16</v>
@@ -6610,7 +7093,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="14">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -6633,7 +7116,7 @@
         <v>63</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="I84" s="5" t="s">
         <v>16</v>
@@ -6648,7 +7131,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="14">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -6671,7 +7154,7 @@
         <v>63</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>16</v>
@@ -6686,7 +7169,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="14">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -6724,7 +7207,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="14">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -6747,7 +7230,7 @@
         <v>375</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>16</v>
@@ -6762,7 +7245,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="14">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -6785,7 +7268,7 @@
         <v>378</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="I88" s="5" t="s">
         <v>16</v>
@@ -6800,7 +7283,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="14">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -6823,7 +7306,7 @@
         <v>378</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>16</v>
@@ -6838,7 +7321,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="14">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -6876,7 +7359,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="14">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -6899,7 +7382,7 @@
         <v>386</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>16</v>
@@ -6914,7 +7397,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="14">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -6952,7 +7435,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="14">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -6975,7 +7458,7 @@
         <v>396</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>16</v>
@@ -6990,7 +7473,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="14">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -7013,7 +7496,7 @@
         <v>52</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I94" s="5" t="s">
         <v>16</v>
@@ -7028,7 +7511,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="14">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -7051,7 +7534,7 @@
         <v>52</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I95" s="6" t="s">
         <v>398</v>
@@ -7066,7 +7549,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="14">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -7089,7 +7572,7 @@
         <v>402</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="I96" s="5" t="s">
         <v>16</v>
@@ -7104,7 +7587,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="14">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -7127,7 +7610,7 @@
         <v>406</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="I97" s="6" t="s">
         <v>16</v>
@@ -7142,7 +7625,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="14">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -7180,7 +7663,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="14">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -7203,7 +7686,7 @@
         <v>416</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>16</v>
@@ -7218,7 +7701,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="14">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -7241,7 +7724,7 @@
         <v>32</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="I100" s="5" t="s">
         <v>16</v>
@@ -7256,7 +7739,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="14">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -7279,7 +7762,7 @@
         <v>32</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="I101" s="6" t="s">
         <v>16</v>
@@ -7294,7 +7777,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="14">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -7332,7 +7815,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="14">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -7370,7 +7853,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="14">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -7393,7 +7876,7 @@
         <v>426</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="I104" s="5" t="s">
         <v>16</v>
@@ -7408,1778 +7891,1778 @@
         <v>822</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
-        <v>104</v>
-      </c>
-      <c r="B105" s="3">
-        <v>94</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>931</v>
-      </c>
-      <c r="I105" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="J105" s="3">
-        <v>5</v>
-      </c>
-      <c r="K105" s="3" t="s">
-        <v>431</v>
+    <row r="105" spans="1:12" ht="14">
+      <c r="A105" s="4">
+        <v>105</v>
+      </c>
+      <c r="B105" s="4">
+        <v>95</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J105" s="4">
+        <v>2</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="L105" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A106" s="4">
-        <v>105</v>
-      </c>
-      <c r="B106" s="4">
-        <v>95</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="I106" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J106" s="4">
-        <v>2</v>
-      </c>
-      <c r="K106" s="4" t="s">
-        <v>17</v>
+    <row r="106" spans="1:12" ht="14">
+      <c r="A106" s="3">
+        <v>106</v>
+      </c>
+      <c r="B106" s="3">
+        <v>96</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J106" s="3">
+        <v>3</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="L106" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
-        <v>106</v>
-      </c>
-      <c r="B107" s="3">
-        <v>96</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="I107" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J107" s="3">
-        <v>3</v>
-      </c>
-      <c r="K107" s="3" t="s">
-        <v>23</v>
+    <row r="107" spans="1:12" ht="14">
+      <c r="A107" s="4">
+        <v>107</v>
+      </c>
+      <c r="B107" s="4">
+        <v>97</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J107" s="4">
+        <v>2</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="L107" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A108" s="4">
-        <v>107</v>
-      </c>
-      <c r="B108" s="4">
-        <v>97</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="H108" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="I108" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J108" s="4">
-        <v>2</v>
-      </c>
-      <c r="K108" s="4" t="s">
+    <row r="108" spans="1:12" ht="14">
+      <c r="A108" s="3">
+        <v>108</v>
+      </c>
+      <c r="B108" s="3">
+        <v>98</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J108" s="3">
+        <v>2</v>
+      </c>
+      <c r="K108" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L108" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
-        <v>108</v>
-      </c>
-      <c r="B109" s="3">
-        <v>98</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="I109" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J109" s="3">
-        <v>2</v>
-      </c>
-      <c r="K109" s="3" t="s">
+    <row r="109" spans="1:12" ht="14">
+      <c r="A109" s="4">
+        <v>109</v>
+      </c>
+      <c r="B109" s="4">
+        <v>99</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J109" s="4">
+        <v>2</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L109" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" s="4">
-        <v>109</v>
-      </c>
-      <c r="B110" s="4">
-        <v>99</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="F110" s="4" t="s">
+    <row r="110" spans="1:12" ht="14">
+      <c r="A110" s="3">
+        <v>110</v>
+      </c>
+      <c r="B110" s="3">
+        <v>100</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F110" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G110" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="I110" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J110" s="4">
-        <v>2</v>
-      </c>
-      <c r="K110" s="4" t="s">
-        <v>17</v>
+      <c r="G110" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J110" s="3">
+        <v>3</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="L110" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A111" s="3">
-        <v>110</v>
-      </c>
-      <c r="B111" s="3">
-        <v>100</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>932</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J111" s="3">
-        <v>3</v>
-      </c>
-      <c r="K111" s="3" t="s">
-        <v>23</v>
+    <row r="111" spans="1:12" ht="14">
+      <c r="A111" s="4">
+        <v>111</v>
+      </c>
+      <c r="B111" s="4">
+        <v>101</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J111" s="4">
+        <v>2</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="L111" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
-        <v>111</v>
-      </c>
-      <c r="B112" s="4">
-        <v>101</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>933</v>
-      </c>
-      <c r="I112" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J112" s="4">
-        <v>2</v>
-      </c>
-      <c r="K112" s="4" t="s">
+    <row r="112" spans="1:12" ht="14">
+      <c r="A112" s="3">
+        <v>112</v>
+      </c>
+      <c r="B112" s="3">
+        <v>102</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J112" s="3">
+        <v>2</v>
+      </c>
+      <c r="K112" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L112" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113" s="3">
-        <v>112</v>
-      </c>
-      <c r="B113" s="3">
-        <v>102</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="I113" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J113" s="3">
-        <v>2</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>17</v>
+    <row r="113" spans="1:12" ht="14">
+      <c r="A113" s="4">
+        <v>113</v>
+      </c>
+      <c r="B113" s="4">
+        <v>103</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J113" s="4">
+        <v>3</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="L113" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A114" s="4">
-        <v>113</v>
-      </c>
-      <c r="B114" s="4">
-        <v>103</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="I114" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J114" s="4">
-        <v>3</v>
-      </c>
-      <c r="K114" s="4" t="s">
-        <v>23</v>
+    <row r="114" spans="1:12" ht="14">
+      <c r="A114" s="3">
+        <v>114</v>
+      </c>
+      <c r="B114" s="3">
+        <v>104</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J114" s="3">
+        <v>2</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="L114" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A115" s="3">
-        <v>114</v>
-      </c>
-      <c r="B115" s="3">
-        <v>104</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="I115" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J115" s="3">
-        <v>2</v>
-      </c>
-      <c r="K115" s="3" t="s">
-        <v>17</v>
+    <row r="115" spans="1:12" ht="14">
+      <c r="A115" s="4">
+        <v>115</v>
+      </c>
+      <c r="B115" s="4">
+        <v>105</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J115" s="4">
+        <v>3</v>
+      </c>
+      <c r="K115" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="L115" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A116" s="4">
-        <v>115</v>
-      </c>
-      <c r="B116" s="4">
-        <v>105</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J116" s="4">
-        <v>3</v>
-      </c>
-      <c r="K116" s="4" t="s">
-        <v>23</v>
+    <row r="116" spans="1:12" ht="14">
+      <c r="A116" s="3">
+        <v>116</v>
+      </c>
+      <c r="B116" s="3">
+        <v>106</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J116" s="3">
+        <v>2</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="L116" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A117" s="3">
-        <v>116</v>
-      </c>
-      <c r="B117" s="3">
-        <v>106</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="I117" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J117" s="3">
-        <v>2</v>
-      </c>
-      <c r="K117" s="3" t="s">
+    <row r="117" spans="1:12" ht="14">
+      <c r="A117" s="4">
+        <v>117</v>
+      </c>
+      <c r="B117" s="4">
+        <v>107</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J117" s="4">
+        <v>2</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L117" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A118" s="4">
-        <v>117</v>
-      </c>
-      <c r="B118" s="4">
-        <v>107</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="I118" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J118" s="4">
-        <v>2</v>
-      </c>
-      <c r="K118" s="4" t="s">
+    <row r="118" spans="1:12" ht="14">
+      <c r="A118" s="3">
+        <v>118</v>
+      </c>
+      <c r="B118" s="3">
+        <v>108</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="J118" s="3">
+        <v>2</v>
+      </c>
+      <c r="K118" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L118" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A119" s="3">
-        <v>118</v>
-      </c>
-      <c r="B119" s="3">
-        <v>108</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="F119" s="3" t="s">
+    <row r="119" spans="1:12" ht="14">
+      <c r="A119" s="4">
+        <v>119</v>
+      </c>
+      <c r="B119" s="4">
+        <v>109</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="F119" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G119" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="I119" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="J119" s="3">
-        <v>2</v>
-      </c>
-      <c r="K119" s="3" t="s">
+      <c r="G119" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J119" s="4">
+        <v>2</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L119" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A120" s="4">
-        <v>119</v>
-      </c>
-      <c r="B120" s="4">
-        <v>109</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="I120" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J120" s="4">
-        <v>2</v>
-      </c>
-      <c r="K120" s="4" t="s">
-        <v>17</v>
+    <row r="120" spans="1:12" ht="14">
+      <c r="A120" s="3">
+        <v>120</v>
+      </c>
+      <c r="B120" s="3">
+        <v>110</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J120" s="3">
+        <v>3</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="L120" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A121" s="3">
-        <v>120</v>
-      </c>
-      <c r="B121" s="3">
-        <v>110</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="H121" s="3" t="s">
-        <v>934</v>
-      </c>
-      <c r="I121" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J121" s="3">
-        <v>3</v>
-      </c>
-      <c r="K121" s="3" t="s">
-        <v>23</v>
+    <row r="121" spans="1:12" ht="14">
+      <c r="A121" s="4">
+        <v>121</v>
+      </c>
+      <c r="B121" s="4">
+        <v>111</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J121" s="4">
+        <v>2</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="L121" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A122" s="4">
-        <v>121</v>
-      </c>
-      <c r="B122" s="4">
-        <v>111</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G122" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H122" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J122" s="4">
-        <v>2</v>
-      </c>
-      <c r="K122" s="4" t="s">
+    <row r="122" spans="1:12" ht="14">
+      <c r="A122" s="3">
+        <v>122</v>
+      </c>
+      <c r="B122" s="3">
+        <v>112</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J122" s="3">
+        <v>2</v>
+      </c>
+      <c r="K122" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L122" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A123" s="3">
-        <v>122</v>
-      </c>
-      <c r="B123" s="3">
-        <v>112</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="F123" s="3" t="s">
+    <row r="123" spans="1:12" ht="14">
+      <c r="A123" s="4">
+        <v>123</v>
+      </c>
+      <c r="B123" s="4">
+        <v>113</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="F123" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="G123" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="I123" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J123" s="3">
-        <v>2</v>
-      </c>
-      <c r="K123" s="3" t="s">
+      <c r="G123" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J123" s="4">
+        <v>2</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L123" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A124" s="4">
-        <v>123</v>
-      </c>
-      <c r="B124" s="4">
+    <row r="124" spans="1:12" s="17" customFormat="1" ht="14">
+      <c r="A124" s="18">
+        <v>124</v>
+      </c>
+      <c r="B124" s="18">
+        <v>114</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="D124" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="E124" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="F124" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="G124" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="H124" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="I124" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J124" s="18">
+        <v>2</v>
+      </c>
+      <c r="K124" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L124" s="20" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="14">
+      <c r="A125" s="4">
+        <v>125</v>
+      </c>
+      <c r="B125" s="4">
+        <v>115</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="I125" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J125" s="4">
+        <v>2</v>
+      </c>
+      <c r="K125" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L125" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="14">
+      <c r="A126" s="3">
+        <v>126</v>
+      </c>
+      <c r="B126" s="3">
+        <v>116</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F126" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>935</v>
-      </c>
-      <c r="I124" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J124" s="4">
-        <v>2</v>
-      </c>
-      <c r="K124" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L124" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="18">
-        <v>124</v>
-      </c>
-      <c r="B125" s="18">
-        <v>114</v>
-      </c>
-      <c r="C125" s="18" t="s">
-        <v>518</v>
-      </c>
-      <c r="D125" s="18" t="s">
-        <v>519</v>
-      </c>
-      <c r="E125" s="18" t="s">
-        <v>520</v>
-      </c>
-      <c r="F125" s="18" t="s">
-        <v>521</v>
-      </c>
-      <c r="G125" s="18" t="s">
-        <v>522</v>
-      </c>
-      <c r="H125" s="18" t="s">
-        <v>523</v>
-      </c>
-      <c r="I125" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="J125" s="18">
-        <v>2</v>
-      </c>
-      <c r="K125" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L125" s="20" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A126" s="4">
-        <v>125</v>
-      </c>
-      <c r="B126" s="4">
-        <v>115</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="I126" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J126" s="4">
-        <v>2</v>
-      </c>
-      <c r="K126" s="4" t="s">
+      <c r="G126" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="I126" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J126" s="3">
+        <v>2</v>
+      </c>
+      <c r="K126" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L126" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A127" s="3">
-        <v>126</v>
-      </c>
-      <c r="B127" s="3">
-        <v>116</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="I127" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J127" s="3">
-        <v>2</v>
-      </c>
-      <c r="K127" s="3" t="s">
+    <row r="127" spans="1:12" ht="14">
+      <c r="A127" s="4">
+        <v>127</v>
+      </c>
+      <c r="B127" s="4">
+        <v>117</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J127" s="4">
+        <v>2</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L127" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A128" s="4">
-        <v>127</v>
-      </c>
-      <c r="B128" s="4">
-        <v>117</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="I128" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J128" s="4">
-        <v>2</v>
-      </c>
-      <c r="K128" s="4" t="s">
-        <v>17</v>
+    <row r="128" spans="1:12" ht="14">
+      <c r="A128" s="3">
+        <v>128</v>
+      </c>
+      <c r="B128" s="3">
+        <v>118</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J128" s="3">
+        <v>3</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="L128" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A129" s="3">
-        <v>128</v>
-      </c>
-      <c r="B129" s="3">
-        <v>118</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="I129" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J129" s="3">
-        <v>3</v>
-      </c>
-      <c r="K129" s="3" t="s">
-        <v>23</v>
+    <row r="129" spans="1:12" ht="14">
+      <c r="A129" s="4">
+        <v>129</v>
+      </c>
+      <c r="B129" s="4">
+        <v>119</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="I129" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J129" s="4">
+        <v>2</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="L129" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A130" s="4">
-        <v>129</v>
-      </c>
-      <c r="B130" s="4">
-        <v>119</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="H130" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="I130" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J130" s="4">
-        <v>2</v>
-      </c>
-      <c r="K130" s="4" t="s">
+    <row r="130" spans="1:12" ht="14">
+      <c r="A130" s="3">
+        <v>130</v>
+      </c>
+      <c r="B130" s="3">
+        <v>120</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J130" s="3">
+        <v>2</v>
+      </c>
+      <c r="K130" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L130" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A131" s="3">
-        <v>130</v>
-      </c>
-      <c r="B131" s="3">
-        <v>120</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="H131" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="I131" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J131" s="3">
-        <v>2</v>
-      </c>
-      <c r="K131" s="3" t="s">
-        <v>17</v>
+    <row r="131" spans="1:12" ht="14">
+      <c r="A131" s="4">
+        <v>131</v>
+      </c>
+      <c r="B131" s="4">
+        <v>121</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="I131" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J131" s="4">
+        <v>3</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="L131" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A132" s="4">
-        <v>131</v>
-      </c>
-      <c r="B132" s="4">
-        <v>121</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="H132" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="I132" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J132" s="4">
-        <v>3</v>
-      </c>
-      <c r="K132" s="4" t="s">
-        <v>23</v>
+    <row r="132" spans="1:12" ht="14">
+      <c r="A132" s="3">
+        <v>132</v>
+      </c>
+      <c r="B132" s="3">
+        <v>122</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="I132" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J132" s="3">
+        <v>2</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="L132" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A133" s="3">
-        <v>132</v>
-      </c>
-      <c r="B133" s="3">
-        <v>122</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="F133" s="3" t="s">
+    <row r="133" spans="1:12" ht="14">
+      <c r="A133" s="4">
+        <v>133</v>
+      </c>
+      <c r="B133" s="4">
+        <v>123</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="F133" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G133" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="H133" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="I133" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J133" s="3">
-        <v>2</v>
-      </c>
-      <c r="K133" s="3" t="s">
+      <c r="G133" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="I133" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J133" s="4">
+        <v>2</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L133" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A134" s="4">
-        <v>133</v>
-      </c>
-      <c r="B134" s="4">
-        <v>123</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="I134" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J134" s="4">
-        <v>2</v>
-      </c>
-      <c r="K134" s="4" t="s">
+    <row r="134" spans="1:12" ht="14">
+      <c r="A134" s="3">
+        <v>134</v>
+      </c>
+      <c r="B134" s="3">
+        <v>124</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="I134" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J134" s="3">
+        <v>2</v>
+      </c>
+      <c r="K134" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L134" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A135" s="3">
-        <v>134</v>
-      </c>
-      <c r="B135" s="3">
-        <v>124</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H135" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="I135" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J135" s="3">
-        <v>2</v>
-      </c>
-      <c r="K135" s="3" t="s">
+    <row r="135" spans="1:12" ht="14">
+      <c r="A135" s="4">
+        <v>135</v>
+      </c>
+      <c r="B135" s="4">
+        <v>125</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="I135" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J135" s="4">
+        <v>2</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L135" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A136" s="4">
-        <v>135</v>
-      </c>
-      <c r="B136" s="4">
-        <v>125</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="H136" s="4" t="s">
-        <v>937</v>
-      </c>
-      <c r="I136" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J136" s="4">
-        <v>2</v>
-      </c>
-      <c r="K136" s="4" t="s">
+    <row r="136" spans="1:12" ht="14">
+      <c r="A136" s="3">
+        <v>136</v>
+      </c>
+      <c r="B136" s="3">
+        <v>126</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="I136" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J136" s="3">
+        <v>2</v>
+      </c>
+      <c r="K136" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L136" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A137" s="3">
-        <v>136</v>
-      </c>
-      <c r="B137" s="3">
-        <v>126</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="H137" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="I137" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J137" s="3">
-        <v>2</v>
-      </c>
-      <c r="K137" s="3" t="s">
+    <row r="137" spans="1:12" ht="14">
+      <c r="A137" s="4">
+        <v>137</v>
+      </c>
+      <c r="B137" s="4">
+        <v>127</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="I137" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J137" s="4">
+        <v>2</v>
+      </c>
+      <c r="K137" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L137" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A138" s="4">
-        <v>137</v>
-      </c>
-      <c r="B138" s="4">
-        <v>127</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="H138" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="I138" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J138" s="4">
-        <v>2</v>
-      </c>
-      <c r="K138" s="4" t="s">
+    <row r="138" spans="1:12" ht="14">
+      <c r="A138" s="3">
+        <v>138</v>
+      </c>
+      <c r="B138" s="3">
+        <v>128</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="I138" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J138" s="3">
+        <v>2</v>
+      </c>
+      <c r="K138" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L138" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A139" s="3">
-        <v>138</v>
-      </c>
-      <c r="B139" s="3">
-        <v>128</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="H139" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="I139" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J139" s="3">
-        <v>2</v>
-      </c>
-      <c r="K139" s="3" t="s">
+    <row r="139" spans="1:12" ht="14">
+      <c r="A139" s="4">
+        <v>139</v>
+      </c>
+      <c r="B139" s="4">
+        <v>129</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="I139" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J139" s="4">
+        <v>2</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L139" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A140" s="4">
-        <v>139</v>
-      </c>
-      <c r="B140" s="4">
-        <v>129</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="I140" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J140" s="4">
-        <v>2</v>
-      </c>
-      <c r="K140" s="4" t="s">
+    <row r="140" spans="1:12" ht="14">
+      <c r="A140" s="3">
+        <v>140</v>
+      </c>
+      <c r="B140" s="3">
+        <v>130</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="I140" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J140" s="3">
+        <v>2</v>
+      </c>
+      <c r="K140" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L140" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A141" s="3">
-        <v>140</v>
-      </c>
-      <c r="B141" s="3">
-        <v>130</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="H141" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="I141" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J141" s="3">
-        <v>2</v>
-      </c>
-      <c r="K141" s="3" t="s">
+    <row r="141" spans="1:12" ht="14">
+      <c r="A141" s="4">
+        <v>141</v>
+      </c>
+      <c r="B141" s="4">
+        <v>131</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="I141" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J141" s="4">
+        <v>2</v>
+      </c>
+      <c r="K141" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L141" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A142" s="4">
-        <v>141</v>
-      </c>
-      <c r="B142" s="4">
-        <v>131</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="H142" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="I142" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J142" s="4">
-        <v>2</v>
-      </c>
-      <c r="K142" s="4" t="s">
-        <v>17</v>
+    <row r="142" spans="1:12" ht="14">
+      <c r="A142" s="3">
+        <v>142</v>
+      </c>
+      <c r="B142" s="3">
+        <v>132</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="I142" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J142" s="3">
+        <v>3</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="L142" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A143" s="3">
-        <v>142</v>
-      </c>
-      <c r="B143" s="3">
-        <v>132</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="H143" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="I143" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J143" s="3">
-        <v>3</v>
-      </c>
-      <c r="K143" s="3" t="s">
-        <v>23</v>
+    <row r="143" spans="1:12" ht="14">
+      <c r="A143" s="4">
+        <v>143</v>
+      </c>
+      <c r="B143" s="4">
+        <v>133</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="I143" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J143" s="4">
+        <v>2</v>
+      </c>
+      <c r="K143" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="L143" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A144" s="4">
-        <v>143</v>
-      </c>
-      <c r="B144" s="4">
-        <v>133</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="H144" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="I144" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J144" s="4">
-        <v>2</v>
-      </c>
-      <c r="K144" s="4" t="s">
+    <row r="144" spans="1:12" ht="14">
+      <c r="A144" s="3">
+        <v>144</v>
+      </c>
+      <c r="B144" s="3">
+        <v>134</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="I144" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J144" s="3">
+        <v>2</v>
+      </c>
+      <c r="K144" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L144" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A145" s="3">
-        <v>144</v>
-      </c>
-      <c r="B145" s="3">
-        <v>134</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="H145" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="I145" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J145" s="3">
-        <v>2</v>
-      </c>
-      <c r="K145" s="3" t="s">
+    <row r="145" spans="1:12" ht="14">
+      <c r="A145" s="4">
+        <v>145</v>
+      </c>
+      <c r="B145" s="4">
+        <v>135</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="I145" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J145" s="4">
+        <v>2</v>
+      </c>
+      <c r="K145" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L145" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A146" s="4">
-        <v>145</v>
-      </c>
-      <c r="B146" s="4">
-        <v>135</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="H146" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="I146" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J146" s="4">
-        <v>2</v>
-      </c>
-      <c r="K146" s="4" t="s">
+    <row r="146" spans="1:12" ht="14">
+      <c r="A146" s="3">
+        <v>146</v>
+      </c>
+      <c r="B146" s="3">
+        <v>136</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="I146" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J146" s="3">
+        <v>2</v>
+      </c>
+      <c r="K146" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L146" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A147" s="3">
-        <v>146</v>
-      </c>
-      <c r="B147" s="3">
-        <v>136</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="G147" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="H147" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="I147" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J147" s="3">
-        <v>2</v>
-      </c>
-      <c r="K147" s="3" t="s">
+    <row r="147" spans="1:12" ht="14">
+      <c r="A147" s="4">
+        <v>147</v>
+      </c>
+      <c r="B147" s="4">
+        <v>137</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="I147" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J147" s="4">
+        <v>2</v>
+      </c>
+      <c r="K147" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L147" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A148" s="4">
-        <v>147</v>
-      </c>
-      <c r="B148" s="4">
-        <v>137</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="D148" s="4" t="s">
+    <row r="148" spans="1:12" ht="14">
+      <c r="A148" s="3">
+        <v>148</v>
+      </c>
+      <c r="B148" s="3">
+        <v>138</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="E148" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="H148" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="I148" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J148" s="4">
-        <v>2</v>
-      </c>
-      <c r="K148" s="4" t="s">
+      <c r="E148" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="I148" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J148" s="3">
+        <v>2</v>
+      </c>
+      <c r="K148" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L148" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A149" s="3">
-        <v>148</v>
-      </c>
-      <c r="B149" s="3">
-        <v>138</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="D149" s="3" t="s">
+    <row r="149" spans="1:12" ht="14">
+      <c r="A149" s="4">
+        <v>149</v>
+      </c>
+      <c r="B149" s="4">
+        <v>139</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="D149" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="E149" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="H149" s="3" t="s">
-        <v>940</v>
-      </c>
-      <c r="I149" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J149" s="3">
-        <v>2</v>
-      </c>
-      <c r="K149" s="3" t="s">
-        <v>17</v>
+      <c r="E149" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="I149" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J149" s="4">
+        <v>3</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="L149" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A150" s="4">
-        <v>149</v>
-      </c>
-      <c r="B150" s="4">
-        <v>139</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="D150" s="4" t="s">
+    <row r="150" spans="1:12" ht="14">
+      <c r="A150" s="3">
+        <v>150</v>
+      </c>
+      <c r="B150" s="3">
+        <v>140</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="D150" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="E150" s="4" t="s">
-        <v>638</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="H150" s="4" t="s">
-        <v>941</v>
-      </c>
-      <c r="I150" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J150" s="4">
-        <v>3</v>
-      </c>
-      <c r="K150" s="4" t="s">
-        <v>23</v>
+      <c r="E150" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="I150" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J150" s="3">
+        <v>2</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="L150" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" ht="28">
       <c r="A151" s="3">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B151" s="3">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>630</v>
+        <v>648</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>643</v>
+        <v>939</v>
       </c>
       <c r="I151" s="6" t="s">
         <v>16</v>
@@ -9194,71 +9677,71 @@
         <v>868</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" ht="14">
       <c r="A152" s="4">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B152" s="4">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>630</v>
+        <v>652</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>942</v>
+        <v>654</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>398</v>
+        <v>16</v>
       </c>
       <c r="J152" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K152" s="4" t="s">
-        <v>431</v>
+        <v>17</v>
       </c>
       <c r="L152" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" ht="14">
       <c r="A153" s="3">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B153" s="3">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>648</v>
+        <v>400</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>943</v>
+        <v>658</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>16</v>
+        <v>398</v>
       </c>
       <c r="J153" s="3">
         <v>2</v>
@@ -9270,30 +9753,30 @@
         <v>870</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" ht="14">
       <c r="A154" s="4">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>639</v>
+        <v>662</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>654</v>
+        <v>940</v>
       </c>
       <c r="I154" s="5" t="s">
         <v>16</v>
@@ -9308,33 +9791,33 @@
         <v>871</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" ht="14">
       <c r="A155" s="3">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B155" s="3">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>400</v>
+        <v>660</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>398</v>
+        <v>16</v>
       </c>
       <c r="J155" s="3">
         <v>2</v>
@@ -9346,30 +9829,30 @@
         <v>872</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" ht="14">
       <c r="A156" s="4">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B156" s="4">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="I156" s="5" t="s">
         <v>16</v>
@@ -9384,144 +9867,144 @@
         <v>873</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" ht="14">
       <c r="A157" s="3">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B157" s="3">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>666</v>
+        <v>941</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>16</v>
+        <v>398</v>
       </c>
       <c r="J157" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L157" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="14">
       <c r="A158" s="4">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B158" s="4">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>945</v>
+        <v>676</v>
       </c>
       <c r="I158" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J158" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K158" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L158" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="14">
       <c r="A159" s="3">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B159" s="3">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>668</v>
+        <v>64</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="I159" s="6" t="s">
-        <v>398</v>
+        <v>16</v>
       </c>
       <c r="J159" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="L159" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" ht="14">
       <c r="A160" s="4">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>673</v>
+        <v>64</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>676</v>
+        <v>942</v>
       </c>
       <c r="I160" s="5" t="s">
         <v>16</v>
@@ -9533,88 +10016,88 @@
         <v>23</v>
       </c>
       <c r="L160" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="14">
+      <c r="A161" s="3">
+        <v>162</v>
+      </c>
+      <c r="B161" s="3">
+        <v>150</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="I161" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J161" s="3">
+        <v>2</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L161" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A161" s="3">
-        <v>160</v>
-      </c>
-      <c r="B161" s="3">
-        <v>149</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G161" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="H161" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="I161" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J161" s="3">
-        <v>2</v>
-      </c>
-      <c r="K161" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L161" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" ht="14">
       <c r="A162" s="4">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B162" s="4">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>679</v>
+        <v>21</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>16</v>
+        <v>398</v>
       </c>
       <c r="J162" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K162" s="4" t="s">
-        <v>23</v>
+        <v>399</v>
       </c>
       <c r="L162" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="14">
       <c r="A163" s="3">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B163" s="3">
         <v>150</v>
@@ -9635,121 +10118,121 @@
         <v>21</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="I163" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J163" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L163" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" ht="14">
       <c r="A164" s="4">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B164" s="4">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>207</v>
+        <v>303</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>21</v>
+        <v>684</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>947</v>
+        <v>685</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>398</v>
+        <v>16</v>
       </c>
       <c r="J164" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K164" s="4" t="s">
-        <v>399</v>
+        <v>17</v>
       </c>
       <c r="L164" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="14">
       <c r="A165" s="3">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B165" s="3">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>207</v>
+        <v>687</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>21</v>
+        <v>689</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>947</v>
+        <v>690</v>
       </c>
       <c r="I165" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J165" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K165" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="L165" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" ht="14">
       <c r="A166" s="4">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B166" s="4">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>303</v>
+        <v>692</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>685</v>
+        <v>944</v>
       </c>
       <c r="I166" s="5" t="s">
         <v>16</v>
@@ -9764,30 +10247,30 @@
         <v>879</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" ht="14">
       <c r="A167" s="3">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B167" s="3">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="I167" s="6" t="s">
         <v>16</v>
@@ -9802,85 +10285,81 @@
         <v>880</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" ht="14">
       <c r="A168" s="4">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B168" s="4">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>948</v>
+        <v>703</v>
       </c>
       <c r="I168" s="5" t="s">
-        <v>16</v>
+        <v>398</v>
       </c>
       <c r="J168" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K168" s="4" t="s">
-        <v>17</v>
+        <v>704</v>
       </c>
       <c r="L168" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" ht="14">
       <c r="A169" s="3">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B169" s="3">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>696</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J169" s="3">
-        <v>2</v>
-      </c>
-      <c r="K169" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="J169" s="3"/>
+      <c r="K169" s="3"/>
       <c r="L169" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="14">
       <c r="A170" s="4">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B170" s="4">
         <v>155</v>
@@ -9907,18 +10386,18 @@
         <v>398</v>
       </c>
       <c r="J170" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K170" s="4" t="s">
-        <v>704</v>
+        <v>17</v>
       </c>
       <c r="L170" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="14">
       <c r="A171" s="3">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B171" s="3">
         <v>155</v>
@@ -9942,17 +10421,21 @@
         <v>703</v>
       </c>
       <c r="I171" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="J171" s="3"/>
-      <c r="K171" s="3"/>
+        <v>398</v>
+      </c>
+      <c r="J171" s="3">
+        <v>3</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="L171" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="14">
       <c r="A172" s="4">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B172" s="4">
         <v>155</v>
@@ -9979,355 +10462,917 @@
         <v>398</v>
       </c>
       <c r="J172" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K172" s="4" t="s">
-        <v>17</v>
+        <v>399</v>
       </c>
       <c r="L172" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A173" s="3">
-        <v>172</v>
-      </c>
-      <c r="B173" s="3">
-        <v>155</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="D173" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" ht="14">
+      <c r="A173" s="4">
+        <v>175</v>
+      </c>
+      <c r="B173" s="4">
+        <v>156</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="D173" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="E173" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="F173" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="H173" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="I173" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="J173" s="3">
-        <v>3</v>
-      </c>
-      <c r="K173" s="3" t="s">
-        <v>23</v>
+      <c r="E173" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="I173" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J173" s="4">
+        <v>2</v>
+      </c>
+      <c r="K173" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="L173" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A174" s="4">
-        <v>173</v>
-      </c>
-      <c r="B174" s="4">
-        <v>155</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>700</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="E174" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G174" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="H174" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="I174" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="J174" s="4">
-        <v>4</v>
-      </c>
-      <c r="K174" s="4" t="s">
-        <v>399</v>
+        <v>882</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="14">
+      <c r="A174" s="3">
+        <v>176</v>
+      </c>
+      <c r="B174" s="3">
+        <v>157</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="I174" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J174" s="3">
+        <v>2</v>
+      </c>
+      <c r="K174" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="L174" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A175" s="3">
-        <v>174</v>
-      </c>
-      <c r="B175" s="3">
-        <v>155</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="D175" s="3" t="s">
+    <row r="175" spans="1:12" ht="14">
+      <c r="A175" s="4">
+        <v>177</v>
+      </c>
+      <c r="B175" s="4">
+        <v>158</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="I175" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J175" s="4">
+        <v>2</v>
+      </c>
+      <c r="K175" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L175" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="14">
+      <c r="A176" s="3">
+        <v>178</v>
+      </c>
+      <c r="B176" s="3">
+        <v>159</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="I176" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J176" s="3">
+        <v>2</v>
+      </c>
+      <c r="K176" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L176" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="14">
+      <c r="A177" s="4">
+        <v>179</v>
+      </c>
+      <c r="B177" s="4">
+        <v>160</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="I177" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J177" s="4">
+        <v>3</v>
+      </c>
+      <c r="K177" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L177" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="14">
+      <c r="A178" s="3">
+        <v>180</v>
+      </c>
+      <c r="B178" s="3">
+        <v>161</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="I178" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J178" s="3">
+        <v>3</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L178" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="16">
+      <c r="C179" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D179" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="E179" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="F179" s="29" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G179" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="H179" s="25" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K179" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="L179" s="26" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="16">
+      <c r="C180" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="D180" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="E180" s="23" t="s">
+        <v>645</v>
+      </c>
+      <c r="F180" s="30" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G180" s="21" t="s">
+        <v>646</v>
+      </c>
+      <c r="H180" s="26" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K180" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="L180" s="26" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="16">
+      <c r="C181" s="21" t="s">
+        <v>949</v>
+      </c>
+      <c r="D181" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E181" s="23" t="s">
+        <v>983</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G181" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="H181" s="26" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K181" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="L181" s="26" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="16">
+      <c r="C182" s="21" t="s">
+        <v>950</v>
+      </c>
+      <c r="D182" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="E182" s="23" t="s">
+        <v>984</v>
+      </c>
+      <c r="F182" s="30" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G182" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="H182" s="26" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K182" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="L182" s="26" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="16">
+      <c r="C183" s="22" t="s">
+        <v>655</v>
+      </c>
+      <c r="D183" s="22" t="s">
+        <v>963</v>
+      </c>
+      <c r="E183" s="24" t="s">
+        <v>985</v>
+      </c>
+      <c r="F183" s="30" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G183" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="H183" s="27" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K183" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="L183" s="27" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="16">
+      <c r="C184" s="21" t="s">
+        <v>951</v>
+      </c>
+      <c r="D184" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="E184" s="23" t="s">
+        <v>986</v>
+      </c>
+      <c r="F184" s="29" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G184" s="21" t="s">
+        <v>639</v>
+      </c>
+      <c r="H184" s="26" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K184" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="L184" s="26" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="16">
+      <c r="C185" s="22" t="s">
+        <v>952</v>
+      </c>
+      <c r="D185" s="22" t="s">
+        <v>964</v>
+      </c>
+      <c r="E185" s="24" t="s">
+        <v>987</v>
+      </c>
+      <c r="F185" s="30" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G185" s="22" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H185" s="27" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K185" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="L185" s="27" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="16">
+      <c r="C186" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="D186" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="E186" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="F186" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G186" s="21" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H186" s="26" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K186" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="L186" s="26" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="16">
+      <c r="C187" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D187" s="21" t="s">
+        <v>965</v>
+      </c>
+      <c r="E187" s="23" t="s">
+        <v>988</v>
+      </c>
+      <c r="F187" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G187" s="21" t="s">
+        <v>974</v>
+      </c>
+      <c r="H187" s="26" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K187" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="L187" s="26" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="16">
+      <c r="C188" s="21" t="s">
+        <v>953</v>
+      </c>
+      <c r="D188" s="21" t="s">
+        <v>966</v>
+      </c>
+      <c r="E188" s="23" t="s">
+        <v>989</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G188" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H188" s="26" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K188" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="L188" s="26" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="16">
+      <c r="C189" s="21" t="s">
+        <v>954</v>
+      </c>
+      <c r="D189" s="21" t="s">
+        <v>967</v>
+      </c>
+      <c r="E189" s="23" t="s">
+        <v>990</v>
+      </c>
+      <c r="F189" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G189" s="21" t="s">
+        <v>975</v>
+      </c>
+      <c r="H189" s="26" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K189" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="L189" s="26" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="16">
+      <c r="C190" s="21" t="s">
+        <v>955</v>
+      </c>
+      <c r="D190" s="21" t="s">
+        <v>968</v>
+      </c>
+      <c r="E190" s="23" t="s">
+        <v>991</v>
+      </c>
+      <c r="F190" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G190" s="21" t="s">
+        <v>671</v>
+      </c>
+      <c r="H190" s="26" t="s">
+        <v>1012</v>
+      </c>
+      <c r="K190" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="L190" s="26" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="16">
+      <c r="C191" s="21" t="s">
+        <v>956</v>
+      </c>
+      <c r="D191" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="E191" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="F191" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G191" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H191" s="26" t="s">
+        <v>1013</v>
+      </c>
+      <c r="K191" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="L191" s="26" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="16">
+      <c r="C192" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="D192" s="21" t="s">
+        <v>969</v>
+      </c>
+      <c r="E192" s="23" t="s">
+        <v>993</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="G192" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="H192" s="26" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K192" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="L192" s="26" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="193" spans="3:12" ht="16">
+      <c r="C193" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="D193" s="21" t="s">
+        <v>614</v>
+      </c>
+      <c r="E193" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="F193" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G193" s="21" t="s">
+        <v>976</v>
+      </c>
+      <c r="H193" s="26" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K193" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="L193" s="26" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="194" spans="3:12" ht="16">
+      <c r="C194" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="D194" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="E194" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G194" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="H194" s="26" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K194" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="L194" s="26" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="195" spans="3:12" ht="16">
+      <c r="C195" s="21" t="s">
+        <v>957</v>
+      </c>
+      <c r="D195" s="21" t="s">
+        <v>970</v>
+      </c>
+      <c r="E195" s="23" t="s">
+        <v>994</v>
+      </c>
+      <c r="F195" s="28" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G195" s="21" t="s">
+        <v>977</v>
+      </c>
+      <c r="H195" s="26" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K195" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="L195" s="26" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="196" spans="3:12" ht="16">
+      <c r="C196" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="D196" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="E196" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G196" s="21" t="s">
+        <v>978</v>
+      </c>
+      <c r="H196" s="26" t="s">
+        <v>1018</v>
+      </c>
+      <c r="K196" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="L196" s="26" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="197" spans="3:12" ht="16">
+      <c r="C197" s="21" t="s">
+        <v>958</v>
+      </c>
+      <c r="D197" s="21" t="s">
+        <v>971</v>
+      </c>
+      <c r="E197" s="23" t="s">
+        <v>995</v>
+      </c>
+      <c r="F197" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G197" s="21" t="s">
+        <v>979</v>
+      </c>
+      <c r="H197" s="26" t="s">
+        <v>1019</v>
+      </c>
+      <c r="K197" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="L197" s="26" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="198" spans="3:12" ht="16">
+      <c r="C198" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D198" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E198" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F198" t="s">
+        <v>340</v>
+      </c>
+      <c r="G198" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H198" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K198" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="L198" s="26" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="199" spans="3:12" ht="16">
+      <c r="C199" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="D199" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="E199" s="24" t="s">
+        <v>996</v>
+      </c>
+      <c r="F199" s="29" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G199" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="H199" s="27" t="s">
+        <v>1021</v>
+      </c>
+      <c r="K199" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="L199" s="27" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="200" spans="3:12" ht="16">
+      <c r="C200" s="21" t="s">
+        <v>659</v>
+      </c>
+      <c r="D200" s="21" t="s">
+        <v>660</v>
+      </c>
+      <c r="E200" s="23" t="s">
+        <v>661</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G200" s="21" t="s">
+        <v>662</v>
+      </c>
+      <c r="H200" s="26" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K200" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="L200" s="26" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="201" spans="3:12" ht="16">
+      <c r="C201" s="22" t="s">
+        <v>959</v>
+      </c>
+      <c r="D201" s="22" t="s">
+        <v>972</v>
+      </c>
+      <c r="E201" s="24" t="s">
+        <v>997</v>
+      </c>
+      <c r="F201" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G201" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="H201" s="27" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K201" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="L201" s="27" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="202" spans="3:12" ht="16">
+      <c r="C202" s="22" t="s">
+        <v>960</v>
+      </c>
+      <c r="D202" s="22" t="s">
         <v>696</v>
       </c>
-      <c r="E175" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="F175" s="3" t="s">
+      <c r="E202" s="24" t="s">
+        <v>998</v>
+      </c>
+      <c r="F202" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G175" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="H175" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="I175" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="J175" s="3">
-        <v>5</v>
-      </c>
-      <c r="K175" s="3" t="s">
+      <c r="G202" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="H202" s="27" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K202" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="L175" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A176" s="4">
-        <v>175</v>
-      </c>
-      <c r="B176" s="4">
-        <v>156</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>706</v>
-      </c>
-      <c r="D176" s="4" t="s">
+      <c r="L202" s="27" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="203" spans="3:12" ht="16">
+      <c r="C203" s="21" t="s">
+        <v>961</v>
+      </c>
+      <c r="D203" s="21" t="s">
         <v>696</v>
       </c>
-      <c r="E176" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="F176" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G176" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="H176" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="I176" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J176" s="4">
-        <v>2</v>
-      </c>
-      <c r="K176" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L176" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A177" s="3">
-        <v>176</v>
-      </c>
-      <c r="B177" s="3">
-        <v>157</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G177" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="H177" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="I177" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J177" s="3">
-        <v>2</v>
-      </c>
-      <c r="K177" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L177" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A178" s="4">
-        <v>177</v>
-      </c>
-      <c r="B178" s="4">
-        <v>158</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="D178" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="F178" s="4" t="s">
+      <c r="E203" s="23" t="s">
+        <v>999</v>
+      </c>
+      <c r="F203" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G178" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="H178" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="I178" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J178" s="4">
-        <v>2</v>
-      </c>
-      <c r="K178" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L178" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A179" s="3">
-        <v>178</v>
-      </c>
-      <c r="B179" s="3">
-        <v>159</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G179" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="H179" s="3" t="s">
-        <v>950</v>
-      </c>
-      <c r="I179" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J179" s="3">
-        <v>2</v>
-      </c>
-      <c r="K179" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L179" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A180" s="4">
-        <v>179</v>
-      </c>
-      <c r="B180" s="4">
-        <v>160</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G180" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="H180" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="I180" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J180" s="4">
-        <v>3</v>
-      </c>
-      <c r="K180" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L180" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A181" s="3">
-        <v>180</v>
-      </c>
-      <c r="B181" s="3">
-        <v>161</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="H181" s="3" t="s">
-        <v>952</v>
-      </c>
-      <c r="I181" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J181" s="3">
-        <v>3</v>
-      </c>
-      <c r="K181" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L181" t="s">
-        <v>889</v>
+      <c r="G203" s="21" t="s">
+        <v>981</v>
+      </c>
+      <c r="H203" s="26" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K203" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="L203" s="26" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="204" spans="3:12" ht="16">
+      <c r="C204" s="21" t="s">
+        <v>962</v>
+      </c>
+      <c r="D204" s="21" t="s">
+        <v>973</v>
+      </c>
+      <c r="E204" s="23" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G204" s="21" t="s">
+        <v>982</v>
+      </c>
+      <c r="H204" s="26" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K204" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="L204" s="26" t="s">
+        <v>1052</v>
       </c>
     </row>
   </sheetData>
@@ -10340,8 +11385,86 @@
     <hyperlink ref="H5" r:id="rId5" xr:uid="{7EB65D76-B870-4A55-BB6D-EE889911EB9D}"/>
     <hyperlink ref="L5" r:id="rId6" xr:uid="{C0A5E1EE-3376-42FC-BA32-5C5352A232E4}"/>
     <hyperlink ref="H6" r:id="rId7" xr:uid="{053E8478-42F6-4FCD-9B2C-CDC061C5BCF8}"/>
+    <hyperlink ref="E179" r:id="rId8" display="mailto:csxluo@comp.polyu.edu.hk" xr:uid="{7D41A71E-4989-E84B-8C4F-BA9FD7DC052F}"/>
+    <hyperlink ref="E180" r:id="rId9" display="mailto:wangying@swc.neu.edu.cn" xr:uid="{5244CD05-2092-5B4E-86AA-070A8C9008D5}"/>
+    <hyperlink ref="E181" r:id="rId10" display="mailto:zp.chen@ucl.ac.uk" xr:uid="{FE4DC819-1EBA-1946-B23E-214C1F7B0BEF}"/>
+    <hyperlink ref="E182" r:id="rId11" display="mailto:why@nju.edu.cn" xr:uid="{84010189-BE63-044B-84CF-EBD9E2D37788}"/>
+    <hyperlink ref="E183" r:id="rId12" display="mailto:xintan@buaa.edu.cn" xr:uid="{33488C03-1AB6-274C-997C-CEF867FC7DB5}"/>
+    <hyperlink ref="E184" r:id="rId13" display="mailto:hhuangaz@cse.ust.hk" xr:uid="{56EF86BB-62D0-B045-90E3-9B995A30A03A}"/>
+    <hyperlink ref="E185" r:id="rId14" display="mailto:jiazhouyang@nudt.edu.cn" xr:uid="{B64D0EAD-B229-B841-B94D-DF0A83EC8BC4}"/>
+    <hyperlink ref="E186" r:id="rId15" display="mailto:moran@ccnu.edu.cn" xr:uid="{96E68D7C-4B4B-FF4B-8C41-7F05D92CFAC2}"/>
+    <hyperlink ref="E187" r:id="rId16" display="mailto:shilin@iscas.ac.cn" xr:uid="{5FFA1EDD-6D08-954C-8F68-CD117A7128CD}"/>
+    <hyperlink ref="E188" r:id="rId17" display="mailto:chong.chunyong@monash.edu" xr:uid="{45A60EA3-A108-9248-83AA-8A2B753A2D32}"/>
+    <hyperlink ref="E189" r:id="rId18" display="mailto:mingfan@xjtu.edu.cn" xr:uid="{7481E883-ABB9-C348-9F1B-1EE0A1D9389E}"/>
+    <hyperlink ref="E190" r:id="rId19" display="mailto:pliangeng@gmail.com" xr:uid="{97E3E218-2EA7-8741-8FD0-208721E17CD4}"/>
+    <hyperlink ref="E191" r:id="rId20" display="mailto:kaifeng.h@icloud.com" xr:uid="{943A8913-828B-BD49-901B-F56590DF1AD4}"/>
+    <hyperlink ref="E192" r:id="rId21" display="mailto:heye@kth.se" xr:uid="{79CC9C28-12D7-8D4D-8E9A-A28766D3FAEB}"/>
+    <hyperlink ref="E193" r:id="rId22" display="mailto:csytang@ieee.org" xr:uid="{897458CC-1475-6642-A0DC-B27C75A72E47}"/>
+    <hyperlink ref="E194" r:id="rId23" display="mailto:mwmvse@rit.edu" xr:uid="{69051FD5-23C2-5A46-889C-378B79F097A8}"/>
+    <hyperlink ref="E195" r:id="rId24" display="mailto:a.tahir@massey.ac.nz" xr:uid="{BF6EB7D7-A51B-EC4E-A617-4EB703CDCFF2}"/>
+    <hyperlink ref="E196" r:id="rId25" display="mailto:csaba.nagy@usi.ch" xr:uid="{7C2786F7-40D4-CC4C-8096-3168BA68A4D1}"/>
+    <hyperlink ref="E197" r:id="rId26" display="mailto:amleto.disalle@univaq.it" xr:uid="{70FE1BD3-709D-7F4E-8361-EF628B6F5788}"/>
+    <hyperlink ref="E198" r:id="rId27" display="mailto:timofey.bryksin@jetbrains.com" xr:uid="{77EE7278-5DAE-3C46-AD23-DC68AA8A1DAA}"/>
+    <hyperlink ref="E199" r:id="rId28" display="mailto:qqxuelei@Gmail.com" xr:uid="{E3E078CB-B0DF-F24E-A766-932AF04CF0FE}"/>
+    <hyperlink ref="E200" r:id="rId29" display="mailto:lxiao6@stevens.edu" xr:uid="{0AEAE6A2-9223-3144-A9E6-45FC3F8C1965}"/>
+    <hyperlink ref="E201" r:id="rId30" display="mailto:zhanx@sustech.edu.cn" xr:uid="{D96684A6-FBB4-B04C-9F65-6C8A0765A3BA}"/>
+    <hyperlink ref="E202" r:id="rId31" display="mailto:yuxiazh@bit.edu.cn" xr:uid="{76ED5A82-374D-1445-A021-55A17729166C}"/>
+    <hyperlink ref="E203" r:id="rId32" display="mailto:zhangyq@sustech.edu.cn" xr:uid="{8CE59F79-D345-334D-921D-484B336E02BD}"/>
+    <hyperlink ref="E204" r:id="rId33" display="mailto:ctreude@gmail.com" xr:uid="{DFF3F1A1-8BEE-9048-ADD8-32078884B380}"/>
+    <hyperlink ref="H179" r:id="rId34" xr:uid="{9A74B8CC-BC03-8846-9AD7-DCB7B93BB554}"/>
+    <hyperlink ref="H180" r:id="rId35" xr:uid="{DB649C03-8BD3-904F-8857-67EDEAC048F2}"/>
+    <hyperlink ref="H181" r:id="rId36" xr:uid="{1344E03A-C58F-864B-B010-BA6432116794}"/>
+    <hyperlink ref="H182" r:id="rId37" xr:uid="{F486828E-A2FF-A547-B3EE-3FD9DB4B06FE}"/>
+    <hyperlink ref="H184" r:id="rId38" xr:uid="{F0AA691D-401B-7F45-84F2-16BFF2508984}"/>
+    <hyperlink ref="H183" r:id="rId39" xr:uid="{726252F2-D13E-8748-AC0F-F5A9280BBE24}"/>
+    <hyperlink ref="H185" r:id="rId40" xr:uid="{577018D7-D6EC-3441-BEB6-82AD88C262B9}"/>
+    <hyperlink ref="H186" r:id="rId41" xr:uid="{735FE2F8-CD4C-9D4F-B6C0-B5878915C0B2}"/>
+    <hyperlink ref="H187" r:id="rId42" xr:uid="{DF562109-D681-A44A-B13C-4226885672C8}"/>
+    <hyperlink ref="H189" r:id="rId43" xr:uid="{33D842FA-79F3-4441-A64C-58C64A1D374E}"/>
+    <hyperlink ref="H188" r:id="rId44" xr:uid="{84EE683A-3EBA-6A49-94B9-CCA4803C5B08}"/>
+    <hyperlink ref="H190" r:id="rId45" xr:uid="{1E58BEB9-C4E0-3A46-A0F9-7247B89DA595}"/>
+    <hyperlink ref="H191" r:id="rId46" location="home" xr:uid="{1D88F48D-D35C-A74A-B1A4-F1EA2EFA458E}"/>
+    <hyperlink ref="H192" r:id="rId47" xr:uid="{203600F8-82B9-C94C-8CC3-87DAD8378F0A}"/>
+    <hyperlink ref="H193" r:id="rId48" xr:uid="{9E41BB49-55E7-AD49-BD24-96D4066F3039}"/>
+    <hyperlink ref="H194" r:id="rId49" xr:uid="{E13F2A17-CFA9-2846-9AEF-5A7908525D7E}"/>
+    <hyperlink ref="H195" r:id="rId50" xr:uid="{A3E97156-22C2-A743-87FC-7683E555C52B}"/>
+    <hyperlink ref="H196" r:id="rId51" xr:uid="{315D5660-0538-9643-A1F3-C4F92B5DF359}"/>
+    <hyperlink ref="H197" r:id="rId52" xr:uid="{81E4E073-4F0D-0247-86D6-19ABDD5A8F32}"/>
+    <hyperlink ref="H198" r:id="rId53" xr:uid="{B8C8EFB5-6CEC-9148-B667-388EAA7A69E5}"/>
+    <hyperlink ref="H199" r:id="rId54" xr:uid="{57A29080-3418-2543-9E1F-EE7B33428EF0}"/>
+    <hyperlink ref="H200" r:id="rId55" xr:uid="{33165670-20B9-4943-B70F-18131FE56E2C}"/>
+    <hyperlink ref="H201" r:id="rId56" xr:uid="{71DC8544-00B1-9B4D-9D36-6FDEE19D6CC8}"/>
+    <hyperlink ref="H202" r:id="rId57" xr:uid="{D5BFF968-8347-6F4D-A33C-C89D872C90B6}"/>
+    <hyperlink ref="H203" r:id="rId58" xr:uid="{70F9B273-873A-BD46-A7D5-8A7F465C3A54}"/>
+    <hyperlink ref="H204" r:id="rId59" xr:uid="{D1F15178-1F7F-7948-8A57-1197A5960CFF}"/>
+    <hyperlink ref="L179" r:id="rId60" xr:uid="{705BA008-4E22-114F-A369-7791A5E565D5}"/>
+    <hyperlink ref="L180" r:id="rId61" xr:uid="{59DC9E34-629D-1648-B362-D47145C82994}"/>
+    <hyperlink ref="L181" r:id="rId62" xr:uid="{C76931C3-59B7-104C-95B6-CD473C7F9E66}"/>
+    <hyperlink ref="L182" r:id="rId63" xr:uid="{DF6B358D-6DBA-7447-BBBC-D5414A6A6E20}"/>
+    <hyperlink ref="L184" r:id="rId64" xr:uid="{D01E1972-5101-EA4C-92A3-555A8F903711}"/>
+    <hyperlink ref="L183" r:id="rId65" xr:uid="{5702DEBC-E060-934A-9937-EA9F034E444A}"/>
+    <hyperlink ref="L185" r:id="rId66" xr:uid="{86E2EF39-3B8F-8F40-A458-EDDA61249491}"/>
+    <hyperlink ref="L186" r:id="rId67" xr:uid="{738CE1BB-EB3B-0F41-A8E5-BBFD5AE73A7D}"/>
+    <hyperlink ref="L187" r:id="rId68" xr:uid="{0AB74854-A34C-8746-AD34-8D5AAD8A7F39}"/>
+    <hyperlink ref="L189" r:id="rId69" xr:uid="{52E0FE39-8DD0-0640-91A2-3B1D45A3576C}"/>
+    <hyperlink ref="L188" r:id="rId70" xr:uid="{ADDE731C-F6D6-7442-8260-DE4AC37D1E15}"/>
+    <hyperlink ref="L190" r:id="rId71" xr:uid="{1E97E313-432F-1247-AF16-4EA9EC68734F}"/>
+    <hyperlink ref="L191" r:id="rId72" xr:uid="{FC9F0CCD-DA01-1847-A68D-AF9D00ED38DA}"/>
+    <hyperlink ref="L192" r:id="rId73" xr:uid="{015106CD-4A40-0E42-90A7-DD6002D7325D}"/>
+    <hyperlink ref="L193" r:id="rId74" xr:uid="{DC2C9A47-6504-A94F-A76E-FC498B20B545}"/>
+    <hyperlink ref="L194" r:id="rId75" xr:uid="{083DF9B5-302D-F042-BB36-651AAC284594}"/>
+    <hyperlink ref="L195" r:id="rId76" xr:uid="{14732367-B2C9-C742-825B-6383E10DA2CB}"/>
+    <hyperlink ref="L196" r:id="rId77" xr:uid="{AF89ABC7-C7CC-EA49-9C78-69D77D2AD930}"/>
+    <hyperlink ref="L197" r:id="rId78" xr:uid="{0BF1623B-1D5D-3F48-83E1-826B31C3670E}"/>
+    <hyperlink ref="L198" r:id="rId79" xr:uid="{2631CCE2-09EC-5E4F-B3C6-EC36170B3F42}"/>
+    <hyperlink ref="L199" r:id="rId80" xr:uid="{76C76B0A-5625-5640-9CF5-DDFA45C29592}"/>
+    <hyperlink ref="L200" r:id="rId81" xr:uid="{3E677956-B7E9-1141-9705-C5C93DF299D4}"/>
+    <hyperlink ref="L201" r:id="rId82" xr:uid="{1A2C9EC8-929A-324A-98E1-3F89A606EB80}"/>
+    <hyperlink ref="L202" r:id="rId83" xr:uid="{4DDE8E04-E2D4-9449-83B9-5793828B7884}"/>
+    <hyperlink ref="L203" r:id="rId84" xr:uid="{00F26D93-4519-4C4E-8313-352AEEE2C432}"/>
+    <hyperlink ref="L204" r:id="rId85" xr:uid="{B9CB8B10-9E8A-F846-B095-274C4806034E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId86"/>
 </worksheet>
 </file>
--- a/tools/commiteeMembers.xlsx
+++ b/tools/commiteeMembers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/devil/Documents/saner2023/Tool_demo_track/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leyau\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F297D953-CBF3-524F-B0F6-F9189DBB1519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2749564C-03CC-4058-8C31-BFB469F7C9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" tabRatio="208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program committee" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="1067">
   <si>
     <t>#</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Concordia University</t>
   </si>
   <si>
-    <t>http://das.encs.concordia.ca/members/ahmad-abdellatif/</t>
-  </si>
-  <si>
     <t>ERA Track</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>Department of Software Engineering, University of Szeged</t>
   </si>
   <si>
-    <t>http://www.inf.u-szeged.hu/~beszedes/</t>
-  </si>
-  <si>
     <t>Cor-Paul</t>
   </si>
   <si>
@@ -190,15 +184,9 @@
     <t>rbonifacio@unb.br</t>
   </si>
   <si>
-    <t>Brazil</t>
-  </si>
-  <si>
     <t>Computer Science Department, Universidade de Brasilia</t>
   </si>
   <si>
-    <t>http://rbonifacio.net</t>
-  </si>
-  <si>
     <t>Timofey</t>
   </si>
   <si>
@@ -514,9 +502,6 @@
     <t>Bowling Green State University</t>
   </si>
   <si>
-    <t>http://www.cs.bgsu.edu/mdecke/</t>
-  </si>
-  <si>
     <t>Serge</t>
   </si>
   <si>
@@ -691,12 +676,6 @@
     <t>cygao@cse.cuhk.edu.hk</t>
   </si>
   <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>The Chinese University of Hong Kong</t>
-  </si>
-  <si>
     <t>http://www.cse.cuhk.edu.hk/~cygao</t>
   </si>
   <si>
@@ -793,9 +772,6 @@
     <t>habchi.sarrah@gmail.com</t>
   </si>
   <si>
-    <t>Ubisoft</t>
-  </si>
-  <si>
     <t>Foyzul</t>
   </si>
   <si>
@@ -1525,9 +1501,6 @@
     <t>STAKE Lab - University of Molise</t>
   </si>
   <si>
-    <t>http://www.distat.unimol.it/people/oliveto</t>
-  </si>
-  <si>
     <t>Ali</t>
   </si>
   <si>
@@ -1853,9 +1826,6 @@
   </si>
   <si>
     <t>nick.sumner@gmail.com</t>
-  </si>
-  <si>
-    <t>Simon Fraser</t>
   </si>
   <si>
     <t>http://www.cs.sfu.ca/~wsumner</t>
@@ -2694,9 +2664,6 @@
   </si>
   <si>
     <t>https://scholar.googleusercontent.com/citations?view_op=view_photo&amp;user=Wuq5F8MAAAAJ&amp;citpid=2</t>
-  </si>
-  <si>
-    <t>https://scholar.google.it/citations?user=8Z20aIMAAAAJ&amp;hl=it</t>
   </si>
   <si>
     <t>https://apps.ualberta.ca/directory/person/bezemer</t>
@@ -3269,10 +3236,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Hong Kong</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>National University of Defense Technology</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3286,6 +3249,87 @@
   </si>
   <si>
     <t>Italy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://das.encs.concordia.ca/members/ahmad-abdellatif/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://essere.disco.unimib.it/wiki/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.inf.u-szeged.hu/~beszedes/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://rbonifacio.github.io/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JetBrains Research</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mjdecker.github.io/index.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hong Kong, China</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interdisciplinary Center for Security, Reliability and Trust (SnT)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanderbilt University</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United States</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brasil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dibt.unimol.it/staff/oliveto/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simon Fraser University</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macau University of Science and Technology</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macao, China</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cuiyungao.github.io/images/cuiyun.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>School of Computer Science and Technology
+Harbin Institute of Technolgy, Shenzhen</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3293,7 +3337,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3445,7 +3489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3535,6 +3579,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3922,26 +3969,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H159" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J173" sqref="J173"/>
+    <sheetView tabSelected="1" topLeftCell="D38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="32.5" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="5" max="5" width="32.453125" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" customWidth="1"/>
     <col min="7" max="7" width="60" customWidth="1"/>
-    <col min="8" max="8" width="134.5" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="134.453125" customWidth="1"/>
+    <col min="9" max="9" width="25.6328125" customWidth="1"/>
+    <col min="10" max="10" width="18.36328125" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="98.5" customWidth="1"/>
+    <col min="12" max="12" width="98.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="49">
+    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3976,10 +4023,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="14">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4002,7 +4049,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>16</v>
@@ -4014,10 +4061,10 @@
         <v>17</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="14">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4039,8 +4086,8 @@
       <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
+      <c r="H3" s="13" t="s">
+        <v>1047</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>16</v>
@@ -4049,13 +4096,13 @@
         <v>3</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="14">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -4063,22 +4110,22 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>888</v>
+      <c r="H4" s="8" t="s">
+        <v>1048</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>16</v>
@@ -4087,13 +4134,13 @@
         <v>3</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="14">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4101,22 +4148,22 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="H5" s="13" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>16</v>
@@ -4128,10 +4175,10 @@
         <v>17</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="14">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -4139,22 +4186,22 @@
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="H6" s="8" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>16</v>
@@ -4163,13 +4210,13 @@
         <v>3</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="14">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4177,22 +4224,22 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>43</v>
+      <c r="H7" s="13" t="s">
+        <v>1049</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>16</v>
@@ -4204,10 +4251,10 @@
         <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="14">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -4215,22 +4262,22 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>16</v>
@@ -4242,10 +4289,10 @@
         <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="14">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4253,22 +4300,22 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>16</v>
@@ -4280,10 +4327,10 @@
         <v>17</v>
       </c>
       <c r="L9" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="14">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -4291,22 +4338,22 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="F10" s="7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>58</v>
+      <c r="H10" s="8" t="s">
+        <v>1050</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>16</v>
@@ -4315,13 +4362,13 @@
         <v>3</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="14">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4329,22 +4376,22 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>1051</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>16</v>
@@ -4356,10 +4403,10 @@
         <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="28">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="25" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -4367,23 +4414,23 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="I12" s="5" t="s">
         <v>16</v>
       </c>
@@ -4394,10 +4441,10 @@
         <v>17</v>
       </c>
       <c r="L12" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="14">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4405,23 +4452,23 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="I13" s="6" t="s">
         <v>16</v>
       </c>
@@ -4432,10 +4479,10 @@
         <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="14">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -4443,23 +4490,23 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="I14" s="5" t="s">
         <v>16</v>
       </c>
@@ -4470,10 +4517,10 @@
         <v>17</v>
       </c>
       <c r="L14" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="14">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4481,23 +4528,23 @@
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="I15" s="6" t="s">
         <v>16</v>
       </c>
@@ -4508,10 +4555,10 @@
         <v>17</v>
       </c>
       <c r="L15" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="14">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -4519,98 +4566,98 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="I16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="4">
+        <v>2</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="D17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="F17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="4">
-        <v>2</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="14">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="I17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="14">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>16</v>
@@ -4619,13 +4666,13 @@
         <v>3</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="14">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -4633,22 +4680,22 @@
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>16</v>
@@ -4657,13 +4704,13 @@
         <v>3</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L19" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="14">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -4671,22 +4718,22 @@
         <v>18</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>16</v>
@@ -4698,10 +4745,10 @@
         <v>17</v>
       </c>
       <c r="L20" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="14">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -4709,22 +4756,22 @@
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>16</v>
@@ -4736,10 +4783,10 @@
         <v>17</v>
       </c>
       <c r="L21" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="14">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -4747,22 +4794,22 @@
         <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>16</v>
@@ -4771,13 +4818,13 @@
         <v>3</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L22" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="14">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -4785,13 +4832,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>14</v>
@@ -4800,7 +4847,7 @@
         <v>21</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>16</v>
@@ -4812,10 +4859,10 @@
         <v>17</v>
       </c>
       <c r="L23" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="14">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -4823,22 +4870,22 @@
         <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="H24" s="4" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>16</v>
@@ -4847,13 +4894,13 @@
         <v>3</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L24" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="14">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -4861,22 +4908,22 @@
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="H25" s="3" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>16</v>
@@ -4888,10 +4935,10 @@
         <v>17</v>
       </c>
       <c r="L25" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="14">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -4899,23 +4946,23 @@
         <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="I26" s="5" t="s">
         <v>16</v>
       </c>
@@ -4926,10 +4973,10 @@
         <v>17</v>
       </c>
       <c r="L26" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="14">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -4937,22 +4984,22 @@
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>16</v>
@@ -4961,13 +5008,13 @@
         <v>3</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L27" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="14">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -4975,22 +5022,22 @@
         <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="H28" s="4" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>16</v>
@@ -5002,10 +5049,10 @@
         <v>17</v>
       </c>
       <c r="L28" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="14">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -5013,22 +5060,22 @@
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>16</v>
@@ -5037,13 +5084,13 @@
         <v>3</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L29" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="14">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -5051,22 +5098,22 @@
         <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="H30" s="4" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>16</v>
@@ -5075,13 +5122,13 @@
         <v>3</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L30" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="14">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -5089,13 +5136,13 @@
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>14</v>
@@ -5104,7 +5151,7 @@
         <v>21</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>16</v>
@@ -5116,10 +5163,10 @@
         <v>17</v>
       </c>
       <c r="L31" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="14">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -5127,13 +5174,13 @@
         <v>29</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>14</v>
@@ -5142,7 +5189,7 @@
         <v>21</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>16</v>
@@ -5151,13 +5198,13 @@
         <v>3</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L32" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="14">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -5165,23 +5212,23 @@
         <v>30</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="I33" s="6" t="s">
         <v>16</v>
       </c>
@@ -5192,10 +5239,10 @@
         <v>17</v>
       </c>
       <c r="L33" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="14">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -5203,23 +5250,23 @@
         <v>31</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="I34" s="5" t="s">
         <v>16</v>
       </c>
@@ -5230,10 +5277,10 @@
         <v>17</v>
       </c>
       <c r="L34" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="14">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -5241,22 +5288,22 @@
         <v>32</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>1052</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>16</v>
@@ -5265,13 +5312,13 @@
         <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L35" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="14">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -5279,22 +5326,22 @@
         <v>33</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>16</v>
@@ -5306,10 +5353,10 @@
         <v>17</v>
       </c>
       <c r="L36" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="14">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -5317,22 +5364,22 @@
         <v>33</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>16</v>
@@ -5341,13 +5388,13 @@
         <v>3</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L37" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="14">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -5355,22 +5402,22 @@
         <v>34</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>16</v>
@@ -5382,10 +5429,10 @@
         <v>17</v>
       </c>
       <c r="L38" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="14">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -5393,22 +5440,22 @@
         <v>35</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>16</v>
@@ -5420,10 +5467,10 @@
         <v>17</v>
       </c>
       <c r="L39" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="14">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -5431,22 +5478,22 @@
         <v>36</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>16</v>
@@ -5455,13 +5502,13 @@
         <v>3</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L40" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="14">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -5469,22 +5516,22 @@
         <v>37</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>1053</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>16</v>
@@ -5493,13 +5540,13 @@
         <v>3</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L41" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="14">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -5507,22 +5554,22 @@
         <v>38</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>16</v>
@@ -5534,10 +5581,10 @@
         <v>17</v>
       </c>
       <c r="L42" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="14">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -5545,22 +5592,22 @@
         <v>39</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>16</v>
@@ -5572,10 +5619,10 @@
         <v>17</v>
       </c>
       <c r="L43" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="14">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -5583,22 +5630,22 @@
         <v>40</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>16</v>
@@ -5607,13 +5654,13 @@
         <v>3</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="14">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -5621,22 +5668,22 @@
         <v>41</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>16</v>
@@ -5645,13 +5692,13 @@
         <v>3</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L45" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="14">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -5659,22 +5706,22 @@
         <v>42</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>123</v>
+        <v>204</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>1042</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>16</v>
@@ -5686,10 +5733,10 @@
         <v>17</v>
       </c>
       <c r="L46" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="14">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -5697,22 +5744,22 @@
         <v>43</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>16</v>
@@ -5724,10 +5771,10 @@
         <v>17</v>
       </c>
       <c r="L47" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="14">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -5735,22 +5782,22 @@
         <v>44</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>16</v>
@@ -5762,10 +5809,10 @@
         <v>17</v>
       </c>
       <c r="L48" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="14">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="25" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -5773,22 +5820,22 @@
         <v>45</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
+      </c>
+      <c r="F49" s="33" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G49" s="33" t="s">
+        <v>1066</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>16</v>
@@ -5799,11 +5846,11 @@
       <c r="K49" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L49" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="14">
+      <c r="L49" s="12" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="25" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -5811,22 +5858,22 @@
         <v>45</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>1066</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>16</v>
@@ -5835,13 +5882,13 @@
         <v>3</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L50" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="14">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -5849,22 +5896,22 @@
         <v>46</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>16</v>
@@ -5876,10 +5923,10 @@
         <v>17</v>
       </c>
       <c r="L51" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="14">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -5887,22 +5934,22 @@
         <v>47</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>16</v>
@@ -5914,10 +5961,10 @@
         <v>17</v>
       </c>
       <c r="L52" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="14">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -5925,22 +5972,22 @@
         <v>48</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>16</v>
@@ -5952,10 +5999,10 @@
         <v>17</v>
       </c>
       <c r="L53" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="14">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -5963,22 +6010,22 @@
         <v>49</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>16</v>
@@ -5987,13 +6034,13 @@
         <v>3</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L54" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="14">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -6001,22 +6048,22 @@
         <v>50</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>16</v>
@@ -6025,13 +6072,13 @@
         <v>3</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L55" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="14">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -6039,22 +6086,22 @@
         <v>51</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>16</v>
@@ -6066,10 +6113,10 @@
         <v>17</v>
       </c>
       <c r="L56" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="14">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -6077,22 +6124,22 @@
         <v>52</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>257</v>
+        <v>249</v>
+      </c>
+      <c r="F57" s="33" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G57" s="33" t="s">
+        <v>1055</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>16</v>
@@ -6104,10 +6151,10 @@
         <v>17</v>
       </c>
       <c r="L57" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="14">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -6115,22 +6162,22 @@
         <v>53</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>16</v>
@@ -6142,10 +6189,10 @@
         <v>17</v>
       </c>
       <c r="L58" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="14">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -6153,22 +6200,22 @@
         <v>54</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>16</v>
@@ -6180,10 +6227,10 @@
         <v>17</v>
       </c>
       <c r="L59" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="14">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -6191,22 +6238,22 @@
         <v>55</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>16</v>
@@ -6218,10 +6265,10 @@
         <v>17</v>
       </c>
       <c r="L60" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="14">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -6229,22 +6276,22 @@
         <v>55</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>16</v>
@@ -6253,13 +6300,13 @@
         <v>3</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L61" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="14">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -6267,22 +6314,22 @@
         <v>56</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>16</v>
@@ -6291,13 +6338,13 @@
         <v>3</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L62" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="14">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -6305,22 +6352,22 @@
         <v>57</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>16</v>
@@ -6329,13 +6376,13 @@
         <v>3</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L63" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="14">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -6343,22 +6390,22 @@
         <v>58</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>16</v>
@@ -6370,10 +6417,10 @@
         <v>17</v>
       </c>
       <c r="L64" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="14">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -6381,22 +6428,22 @@
         <v>59</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>16</v>
@@ -6408,10 +6455,10 @@
         <v>17</v>
       </c>
       <c r="L65" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="14">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -6419,22 +6466,22 @@
         <v>60</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>16</v>
@@ -6443,13 +6490,13 @@
         <v>3</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L66" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="14">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -6457,22 +6504,22 @@
         <v>61</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>16</v>
@@ -6484,10 +6531,10 @@
         <v>17</v>
       </c>
       <c r="L67" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="14">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -6495,22 +6542,22 @@
         <v>62</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F68" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G68" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="H68" s="4" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>16</v>
@@ -6522,10 +6569,10 @@
         <v>17</v>
       </c>
       <c r="L68" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="14">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -6533,20 +6580,22 @@
         <v>63</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G69" s="3"/>
+        <v>119</v>
+      </c>
+      <c r="G69" s="33" t="s">
+        <v>1057</v>
+      </c>
       <c r="H69" s="3" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>16</v>
@@ -6555,13 +6604,13 @@
         <v>3</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L69" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="14">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -6569,22 +6618,22 @@
         <v>64</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>16</v>
@@ -6596,10 +6645,10 @@
         <v>17</v>
       </c>
       <c r="L70" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="14">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -6607,22 +6656,22 @@
         <v>65</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>16</v>
@@ -6634,10 +6683,10 @@
         <v>17</v>
       </c>
       <c r="L71" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="14">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -6645,22 +6694,22 @@
         <v>66</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>16</v>
@@ -6669,13 +6718,13 @@
         <v>3</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L72" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="14">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -6683,22 +6732,22 @@
         <v>67</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D73" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G73" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>321</v>
-      </c>
       <c r="H73" s="3" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>16</v>
@@ -6710,10 +6759,10 @@
         <v>17</v>
       </c>
       <c r="L73" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" s="17" customFormat="1" ht="14">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
         <v>73</v>
       </c>
@@ -6721,22 +6770,22 @@
         <v>68</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="I74" s="15" t="s">
         <v>16</v>
@@ -6745,13 +6794,13 @@
         <v>3</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L74" s="16" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="14">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -6759,22 +6808,22 @@
         <v>69</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>16</v>
@@ -6786,10 +6835,10 @@
         <v>17</v>
       </c>
       <c r="L75" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="14">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -6797,22 +6846,22 @@
         <v>70</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>16</v>
@@ -6824,10 +6873,10 @@
         <v>17</v>
       </c>
       <c r="L76" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="14">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -6835,22 +6884,22 @@
         <v>71</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>16</v>
@@ -6859,13 +6908,13 @@
         <v>3</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L77" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="14">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -6873,22 +6922,22 @@
         <v>72</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>16</v>
@@ -6900,10 +6949,10 @@
         <v>17</v>
       </c>
       <c r="L78" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="14">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -6911,22 +6960,22 @@
         <v>73</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>16</v>
@@ -6938,10 +6987,10 @@
         <v>17</v>
       </c>
       <c r="L79" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="14">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -6949,22 +6998,22 @@
         <v>74</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>16</v>
@@ -6976,10 +7025,10 @@
         <v>17</v>
       </c>
       <c r="L80" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="14">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -6987,22 +7036,22 @@
         <v>75</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>16</v>
@@ -7014,10 +7063,10 @@
         <v>17</v>
       </c>
       <c r="L81" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="14">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -7025,22 +7074,22 @@
         <v>76</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="I82" s="5" t="s">
         <v>16</v>
@@ -7052,10 +7101,10 @@
         <v>17</v>
       </c>
       <c r="L82" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="14">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -7063,22 +7112,22 @@
         <v>77</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>16</v>
@@ -7090,10 +7139,10 @@
         <v>17</v>
       </c>
       <c r="L83" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="14">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -7101,22 +7150,22 @@
         <v>78</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>77</v>
+        <v>359</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>1058</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="I84" s="5" t="s">
         <v>16</v>
@@ -7128,10 +7177,10 @@
         <v>17</v>
       </c>
       <c r="L84" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="14">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -7139,22 +7188,22 @@
         <v>78</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>77</v>
+        <v>359</v>
+      </c>
+      <c r="F85" s="33" t="s">
+        <v>1058</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>16</v>
@@ -7163,13 +7212,13 @@
         <v>3</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L85" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="14">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -7177,22 +7226,22 @@
         <v>79</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="I86" s="5" t="s">
         <v>16</v>
@@ -7204,10 +7253,10 @@
         <v>17</v>
       </c>
       <c r="L86" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="14">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -7215,22 +7264,22 @@
         <v>80</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>16</v>
@@ -7242,10 +7291,10 @@
         <v>17</v>
       </c>
       <c r="L87" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="14">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -7253,22 +7302,22 @@
         <v>81</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="I88" s="5" t="s">
         <v>16</v>
@@ -7280,10 +7329,10 @@
         <v>17</v>
       </c>
       <c r="L88" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="14">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -7291,22 +7340,22 @@
         <v>81</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>16</v>
@@ -7315,13 +7364,13 @@
         <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L89" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="14">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -7329,22 +7378,22 @@
         <v>82</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="I90" s="5" t="s">
         <v>16</v>
@@ -7356,10 +7405,10 @@
         <v>17</v>
       </c>
       <c r="L90" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="14">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -7367,22 +7416,22 @@
         <v>83</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>16</v>
@@ -7391,13 +7440,13 @@
         <v>3</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L91" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="14">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -7405,22 +7454,22 @@
         <v>84</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="I92" s="5" t="s">
         <v>16</v>
@@ -7432,10 +7481,10 @@
         <v>17</v>
       </c>
       <c r="L92" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="14">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -7443,22 +7492,22 @@
         <v>85</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>16</v>
@@ -7470,10 +7519,10 @@
         <v>17</v>
       </c>
       <c r="L93" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="14">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -7481,22 +7530,22 @@
         <v>86</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="I94" s="5" t="s">
         <v>16</v>
@@ -7508,10 +7557,10 @@
         <v>17</v>
       </c>
       <c r="L94" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="14">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -7519,37 +7568,37 @@
         <v>86</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="J95" s="3">
         <v>4</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="L95" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="14">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -7557,22 +7606,22 @@
         <v>87</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D96" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G96" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="E96" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>402</v>
-      </c>
       <c r="H96" s="4" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="I96" s="5" t="s">
         <v>16</v>
@@ -7584,10 +7633,10 @@
         <v>17</v>
       </c>
       <c r="L96" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="14">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -7595,22 +7644,22 @@
         <v>88</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="I97" s="6" t="s">
         <v>16</v>
@@ -7622,10 +7671,10 @@
         <v>17</v>
       </c>
       <c r="L97" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="14">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -7633,22 +7682,22 @@
         <v>89</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="I98" s="5" t="s">
         <v>16</v>
@@ -7660,10 +7709,10 @@
         <v>17</v>
       </c>
       <c r="L98" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="14">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -7671,22 +7720,22 @@
         <v>90</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>16</v>
@@ -7698,10 +7747,10 @@
         <v>17</v>
       </c>
       <c r="L99" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="14">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -7709,22 +7758,22 @@
         <v>91</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="F100" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G100" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G100" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="H100" s="4" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="I100" s="5" t="s">
         <v>16</v>
@@ -7736,10 +7785,10 @@
         <v>17</v>
       </c>
       <c r="L100" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="14">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -7747,22 +7796,22 @@
         <v>91</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="F101" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G101" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="H101" s="3" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="I101" s="6" t="s">
         <v>16</v>
@@ -7771,13 +7820,13 @@
         <v>3</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L101" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="14">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -7785,22 +7834,22 @@
         <v>92</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="I102" s="5" t="s">
         <v>16</v>
@@ -7812,10 +7861,10 @@
         <v>17</v>
       </c>
       <c r="L102" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="14">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -7823,37 +7872,37 @@
         <v>92</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="J103" s="3">
         <v>3</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L103" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="14">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -7861,22 +7910,22 @@
         <v>93</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>31</v>
+        <v>417</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>1059</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="I104" s="5" t="s">
         <v>16</v>
@@ -7885,13 +7934,13 @@
         <v>3</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L104" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="14">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>105</v>
       </c>
@@ -7899,22 +7948,22 @@
         <v>95</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>56</v>
+        <v>426</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>1060</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="I105" s="5" t="s">
         <v>16</v>
@@ -7926,10 +7975,10 @@
         <v>17</v>
       </c>
       <c r="L105" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="14">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>106</v>
       </c>
@@ -7937,22 +7986,22 @@
         <v>96</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="I106" s="6" t="s">
         <v>16</v>
@@ -7961,13 +8010,13 @@
         <v>3</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L106" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="14">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>107</v>
       </c>
@@ -7975,22 +8024,22 @@
         <v>97</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I107" s="5" t="s">
         <v>16</v>
@@ -8002,10 +8051,10 @@
         <v>17</v>
       </c>
       <c r="L107" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="14">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>108</v>
       </c>
@@ -8013,22 +8062,22 @@
         <v>98</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="I108" s="6" t="s">
         <v>16</v>
@@ -8040,10 +8089,10 @@
         <v>17</v>
       </c>
       <c r="L108" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="14">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>109</v>
       </c>
@@ -8051,22 +8100,22 @@
         <v>99</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="I109" s="5" t="s">
         <v>16</v>
@@ -8078,10 +8127,10 @@
         <v>17</v>
       </c>
       <c r="L109" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="14">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>110</v>
       </c>
@@ -8089,22 +8138,22 @@
         <v>100</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="I110" s="6" t="s">
         <v>16</v>
@@ -8113,13 +8162,13 @@
         <v>3</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L110" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="14">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>111</v>
       </c>
@@ -8127,22 +8176,22 @@
         <v>101</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="I111" s="5" t="s">
         <v>16</v>
@@ -8154,10 +8203,10 @@
         <v>17</v>
       </c>
       <c r="L111" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="14">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>112</v>
       </c>
@@ -8165,22 +8214,22 @@
         <v>102</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="I112" s="6" t="s">
         <v>16</v>
@@ -8192,10 +8241,10 @@
         <v>17</v>
       </c>
       <c r="L112" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="14">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>113</v>
       </c>
@@ -8203,22 +8252,22 @@
         <v>103</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="I113" s="5" t="s">
         <v>16</v>
@@ -8227,13 +8276,13 @@
         <v>3</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L113" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="14">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>114</v>
       </c>
@@ -8241,22 +8290,22 @@
         <v>104</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="I114" s="6" t="s">
         <v>16</v>
@@ -8268,10 +8317,10 @@
         <v>17</v>
       </c>
       <c r="L114" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="14">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>115</v>
       </c>
@@ -8279,22 +8328,22 @@
         <v>105</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I115" s="5" t="s">
         <v>16</v>
@@ -8303,13 +8352,13 @@
         <v>3</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L115" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="14">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>116</v>
       </c>
@@ -8317,22 +8366,22 @@
         <v>106</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="I116" s="6" t="s">
         <v>16</v>
@@ -8344,10 +8393,10 @@
         <v>17</v>
       </c>
       <c r="L116" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="14">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>117</v>
       </c>
@@ -8355,22 +8404,22 @@
         <v>107</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F117" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G117" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G117" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="H117" s="4" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="I117" s="5" t="s">
         <v>16</v>
@@ -8382,10 +8431,10 @@
         <v>17</v>
       </c>
       <c r="L117" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="14">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>118</v>
       </c>
@@ -8393,25 +8442,25 @@
         <v>108</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="J118" s="3">
         <v>2</v>
@@ -8420,10 +8469,10 @@
         <v>17</v>
       </c>
       <c r="L118" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="14">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>119</v>
       </c>
@@ -8431,22 +8480,22 @@
         <v>109</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>501</v>
+        <v>492</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>1061</v>
       </c>
       <c r="I119" s="5" t="s">
         <v>16</v>
@@ -8458,10 +8507,10 @@
         <v>17</v>
       </c>
       <c r="L119" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="14">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>120</v>
       </c>
@@ -8469,22 +8518,22 @@
         <v>110</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="I120" s="6" t="s">
         <v>16</v>
@@ -8493,13 +8542,13 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L120" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="14">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>121</v>
       </c>
@@ -8507,22 +8556,22 @@
         <v>111</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="I121" s="5" t="s">
         <v>16</v>
@@ -8534,10 +8583,10 @@
         <v>17</v>
       </c>
       <c r="L121" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="14">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>122</v>
       </c>
@@ -8545,22 +8594,22 @@
         <v>112</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="I122" s="6" t="s">
         <v>16</v>
@@ -8572,10 +8621,10 @@
         <v>17</v>
       </c>
       <c r="L122" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="14">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>123</v>
       </c>
@@ -8583,22 +8632,22 @@
         <v>113</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="I123" s="5" t="s">
         <v>16</v>
@@ -8610,10 +8659,10 @@
         <v>17</v>
       </c>
       <c r="L123" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" s="17" customFormat="1" ht="14">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="18">
         <v>124</v>
       </c>
@@ -8621,22 +8670,22 @@
         <v>114</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="E124" s="18" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="G124" s="18" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="H124" s="18" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="I124" s="19" t="s">
         <v>16</v>
@@ -8648,10 +8697,10 @@
         <v>17</v>
       </c>
       <c r="L124" s="20" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="14">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>125</v>
       </c>
@@ -8659,22 +8708,22 @@
         <v>115</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="I125" s="5" t="s">
         <v>16</v>
@@ -8686,10 +8735,10 @@
         <v>17</v>
       </c>
       <c r="L125" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="14">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>126</v>
       </c>
@@ -8697,22 +8746,22 @@
         <v>116</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="I126" s="6" t="s">
         <v>16</v>
@@ -8724,10 +8773,10 @@
         <v>17</v>
       </c>
       <c r="L126" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="14">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>127</v>
       </c>
@@ -8735,22 +8784,22 @@
         <v>117</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="I127" s="5" t="s">
         <v>16</v>
@@ -8762,10 +8811,10 @@
         <v>17</v>
       </c>
       <c r="L127" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="14">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>128</v>
       </c>
@@ -8773,22 +8822,22 @@
         <v>118</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="I128" s="6" t="s">
         <v>16</v>
@@ -8797,13 +8846,13 @@
         <v>3</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L128" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" ht="14">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>129</v>
       </c>
@@ -8811,22 +8860,22 @@
         <v>119</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="I129" s="5" t="s">
         <v>16</v>
@@ -8838,10 +8887,10 @@
         <v>17</v>
       </c>
       <c r="L129" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" ht="14">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>130</v>
       </c>
@@ -8849,22 +8898,22 @@
         <v>120</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I130" s="6" t="s">
         <v>16</v>
@@ -8876,10 +8925,10 @@
         <v>17</v>
       </c>
       <c r="L130" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" ht="14">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>131</v>
       </c>
@@ -8887,22 +8936,22 @@
         <v>121</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="I131" s="5" t="s">
         <v>16</v>
@@ -8911,13 +8960,13 @@
         <v>3</v>
       </c>
       <c r="K131" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L131" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="14">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>132</v>
       </c>
@@ -8925,22 +8974,22 @@
         <v>122</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="I132" s="6" t="s">
         <v>16</v>
@@ -8952,10 +9001,10 @@
         <v>17</v>
       </c>
       <c r="L132" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" ht="14">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>133</v>
       </c>
@@ -8963,22 +9012,22 @@
         <v>123</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="I133" s="5" t="s">
         <v>16</v>
@@ -8990,10 +9039,10 @@
         <v>17</v>
       </c>
       <c r="L133" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" ht="14">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>134</v>
       </c>
@@ -9001,22 +9050,22 @@
         <v>124</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="I134" s="6" t="s">
         <v>16</v>
@@ -9028,10 +9077,10 @@
         <v>17</v>
       </c>
       <c r="L134" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" ht="14">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>135</v>
       </c>
@@ -9039,22 +9088,22 @@
         <v>125</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="I135" s="5" t="s">
         <v>16</v>
@@ -9066,10 +9115,10 @@
         <v>17</v>
       </c>
       <c r="L135" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" ht="14">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>136</v>
       </c>
@@ -9077,22 +9126,22 @@
         <v>126</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="I136" s="6" t="s">
         <v>16</v>
@@ -9104,10 +9153,10 @@
         <v>17</v>
       </c>
       <c r="L136" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" ht="14">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>137</v>
       </c>
@@ -9115,22 +9164,22 @@
         <v>127</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="I137" s="5" t="s">
         <v>16</v>
@@ -9142,10 +9191,10 @@
         <v>17</v>
       </c>
       <c r="L137" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" ht="14">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>138</v>
       </c>
@@ -9153,22 +9202,22 @@
         <v>128</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="I138" s="6" t="s">
         <v>16</v>
@@ -9180,10 +9229,10 @@
         <v>17</v>
       </c>
       <c r="L138" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" ht="14">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>139</v>
       </c>
@@ -9191,13 +9240,13 @@
         <v>129</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>14</v>
@@ -9206,7 +9255,7 @@
         <v>21</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="I139" s="5" t="s">
         <v>16</v>
@@ -9218,10 +9267,10 @@
         <v>17</v>
       </c>
       <c r="L139" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" ht="14">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>140</v>
       </c>
@@ -9229,22 +9278,22 @@
         <v>130</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="I140" s="6" t="s">
         <v>16</v>
@@ -9256,10 +9305,10 @@
         <v>17</v>
       </c>
       <c r="L140" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" ht="14">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>141</v>
       </c>
@@ -9267,22 +9316,22 @@
         <v>131</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="I141" s="5" t="s">
         <v>16</v>
@@ -9294,10 +9343,10 @@
         <v>17</v>
       </c>
       <c r="L141" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" ht="14">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>142</v>
       </c>
@@ -9305,22 +9354,22 @@
         <v>132</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="I142" s="6" t="s">
         <v>16</v>
@@ -9329,13 +9378,13 @@
         <v>3</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L142" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" ht="14">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>143</v>
       </c>
@@ -9343,22 +9392,22 @@
         <v>133</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G143" s="4" t="s">
-        <v>611</v>
+      <c r="G143" s="7" t="s">
+        <v>1062</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="I143" s="5" t="s">
         <v>16</v>
@@ -9370,10 +9419,10 @@
         <v>17</v>
       </c>
       <c r="L143" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" ht="14">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>144</v>
       </c>
@@ -9381,22 +9430,22 @@
         <v>134</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="I144" s="6" t="s">
         <v>16</v>
@@ -9408,10 +9457,10 @@
         <v>17</v>
       </c>
       <c r="L144" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" ht="14">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>145</v>
       </c>
@@ -9419,22 +9468,22 @@
         <v>135</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="I145" s="5" t="s">
         <v>16</v>
@@ -9446,10 +9495,10 @@
         <v>17</v>
       </c>
       <c r="L145" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" ht="14">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>146</v>
       </c>
@@ -9457,22 +9506,22 @@
         <v>136</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="I146" s="6" t="s">
         <v>16</v>
@@ -9484,10 +9533,10 @@
         <v>17</v>
       </c>
       <c r="L146" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" ht="14">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>147</v>
       </c>
@@ -9495,22 +9544,22 @@
         <v>137</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="I147" s="5" t="s">
         <v>16</v>
@@ -9522,10 +9571,10 @@
         <v>17</v>
       </c>
       <c r="L147" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" ht="14">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>148</v>
       </c>
@@ -9533,22 +9582,22 @@
         <v>138</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="I148" s="6" t="s">
         <v>16</v>
@@ -9560,10 +9609,10 @@
         <v>17</v>
       </c>
       <c r="L148" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" ht="14">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>149</v>
       </c>
@@ -9571,22 +9620,22 @@
         <v>139</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>638</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>223</v>
+        <v>628</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>1054</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="I149" s="5" t="s">
         <v>16</v>
@@ -9595,13 +9644,13 @@
         <v>3</v>
       </c>
       <c r="K149" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L149" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" ht="14">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>150</v>
       </c>
@@ -9609,22 +9658,22 @@
         <v>140</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="I150" s="6" t="s">
         <v>16</v>
@@ -9636,10 +9685,10 @@
         <v>17</v>
       </c>
       <c r="L150" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" ht="28">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="25" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>152</v>
       </c>
@@ -9647,22 +9696,22 @@
         <v>142</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="I151" s="6" t="s">
         <v>16</v>
@@ -9674,10 +9723,10 @@
         <v>17</v>
       </c>
       <c r="L151" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" ht="14">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>153</v>
       </c>
@@ -9685,22 +9734,22 @@
         <v>143</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>223</v>
+        <v>643</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>1054</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="I152" s="5" t="s">
         <v>16</v>
@@ -9712,10 +9761,10 @@
         <v>17</v>
       </c>
       <c r="L152" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" ht="14">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>154</v>
       </c>
@@ -9723,25 +9772,25 @@
         <v>144</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="J153" s="3">
         <v>2</v>
@@ -9750,10 +9799,10 @@
         <v>17</v>
       </c>
       <c r="L153" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" ht="14">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>155</v>
       </c>
@@ -9761,22 +9810,22 @@
         <v>145</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="I154" s="5" t="s">
         <v>16</v>
@@ -9788,10 +9837,10 @@
         <v>17</v>
       </c>
       <c r="L154" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" ht="14">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>156</v>
       </c>
@@ -9799,22 +9848,22 @@
         <v>146</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="I155" s="6" t="s">
         <v>16</v>
@@ -9826,10 +9875,10 @@
         <v>17</v>
       </c>
       <c r="L155" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" ht="14">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>157</v>
       </c>
@@ -9837,22 +9886,22 @@
         <v>147</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="I156" s="5" t="s">
         <v>16</v>
@@ -9864,10 +9913,10 @@
         <v>17</v>
       </c>
       <c r="L156" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" ht="14">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>158</v>
       </c>
@@ -9875,37 +9924,37 @@
         <v>147</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="J157" s="3">
         <v>3</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L157" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" ht="14">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>159</v>
       </c>
@@ -9913,22 +9962,22 @@
         <v>148</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="I158" s="5" t="s">
         <v>16</v>
@@ -9937,13 +9986,13 @@
         <v>3</v>
       </c>
       <c r="K158" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L158" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" ht="14">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>160</v>
       </c>
@@ -9951,22 +10000,22 @@
         <v>149</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="I159" s="6" t="s">
         <v>16</v>
@@ -9978,10 +10027,10 @@
         <v>17</v>
       </c>
       <c r="L159" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" ht="14">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>161</v>
       </c>
@@ -9989,22 +10038,22 @@
         <v>149</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="I160" s="5" t="s">
         <v>16</v>
@@ -10013,13 +10062,13 @@
         <v>3</v>
       </c>
       <c r="K160" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L160" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" ht="14">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>162</v>
       </c>
@@ -10027,13 +10076,13 @@
         <v>150</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="F161" s="3" t="s">
         <v>14</v>
@@ -10042,7 +10091,7 @@
         <v>21</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="I161" s="6" t="s">
         <v>16</v>
@@ -10054,10 +10103,10 @@
         <v>17</v>
       </c>
       <c r="L161" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" ht="14">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>163</v>
       </c>
@@ -10065,13 +10114,13 @@
         <v>150</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>14</v>
@@ -10080,22 +10129,22 @@
         <v>21</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="J162" s="4">
         <v>4</v>
       </c>
       <c r="K162" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="L162" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" ht="14">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>164</v>
       </c>
@@ -10103,13 +10152,13 @@
         <v>150</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>14</v>
@@ -10118,7 +10167,7 @@
         <v>21</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="I163" s="6" t="s">
         <v>16</v>
@@ -10127,13 +10176,13 @@
         <v>3</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L163" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" ht="14">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>165</v>
       </c>
@@ -10141,22 +10190,22 @@
         <v>151</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="I164" s="5" t="s">
         <v>16</v>
@@ -10168,10 +10217,10 @@
         <v>17</v>
       </c>
       <c r="L164" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" ht="14">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>166</v>
       </c>
@@ -10179,22 +10228,22 @@
         <v>152</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="I165" s="6" t="s">
         <v>16</v>
@@ -10206,10 +10255,10 @@
         <v>17</v>
       </c>
       <c r="L165" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" ht="14">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>167</v>
       </c>
@@ -10217,22 +10266,22 @@
         <v>153</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="I166" s="5" t="s">
         <v>16</v>
@@ -10244,10 +10293,10 @@
         <v>17</v>
       </c>
       <c r="L166" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" ht="14">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>168</v>
       </c>
@@ -10255,22 +10304,22 @@
         <v>154</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="I167" s="6" t="s">
         <v>16</v>
@@ -10282,10 +10331,10 @@
         <v>17</v>
       </c>
       <c r="L167" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" ht="14">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>169</v>
       </c>
@@ -10293,37 +10342,37 @@
         <v>155</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G168" s="4" t="s">
-        <v>702</v>
+        <v>691</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G168" s="7" t="s">
+        <v>1063</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="I168" s="5" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="J168" s="4">
         <v>1</v>
       </c>
       <c r="K168" s="4" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="L168" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" ht="14">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>170</v>
       </c>
@@ -10331,33 +10380,33 @@
         <v>155</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>31</v>
+        <v>691</v>
+      </c>
+      <c r="F169" s="33" t="s">
+        <v>1064</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
       <c r="L169" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" ht="14">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>171</v>
       </c>
@@ -10365,25 +10414,25 @@
         <v>155</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>31</v>
+        <v>691</v>
+      </c>
+      <c r="F170" s="7" t="s">
+        <v>1064</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="I170" s="5" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="J170" s="4">
         <v>2</v>
@@ -10392,10 +10441,10 @@
         <v>17</v>
       </c>
       <c r="L170" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" ht="14">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>172</v>
       </c>
@@ -10403,37 +10452,37 @@
         <v>155</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>31</v>
+        <v>691</v>
+      </c>
+      <c r="F171" s="33" t="s">
+        <v>1064</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="I171" s="6" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="J171" s="3">
         <v>3</v>
       </c>
       <c r="K171" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L171" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" ht="14">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>173</v>
       </c>
@@ -10441,37 +10490,37 @@
         <v>155</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="F172" s="4" t="s">
-        <v>31</v>
+        <v>691</v>
+      </c>
+      <c r="F172" s="7" t="s">
+        <v>1064</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="I172" s="5" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="J172" s="4">
         <v>4</v>
       </c>
       <c r="K172" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="L172" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" ht="14">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>175</v>
       </c>
@@ -10479,22 +10528,22 @@
         <v>156</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="I173" s="5" t="s">
         <v>16</v>
@@ -10506,10 +10555,10 @@
         <v>17</v>
       </c>
       <c r="L173" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" ht="14">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>176</v>
       </c>
@@ -10517,22 +10566,22 @@
         <v>157</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="I174" s="6" t="s">
         <v>16</v>
@@ -10544,10 +10593,10 @@
         <v>17</v>
       </c>
       <c r="L174" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" ht="14">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>177</v>
       </c>
@@ -10555,22 +10604,22 @@
         <v>158</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="I175" s="5" t="s">
         <v>16</v>
@@ -10582,10 +10631,10 @@
         <v>17</v>
       </c>
       <c r="L175" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" ht="14">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>178</v>
       </c>
@@ -10593,22 +10642,22 @@
         <v>159</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="I176" s="6" t="s">
         <v>16</v>
@@ -10620,10 +10669,10 @@
         <v>17</v>
       </c>
       <c r="L176" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" ht="14">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>179</v>
       </c>
@@ -10631,22 +10680,22 @@
         <v>160</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="I177" s="5" t="s">
         <v>16</v>
@@ -10655,13 +10704,13 @@
         <v>3</v>
       </c>
       <c r="K177" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L177" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" ht="14">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>180</v>
       </c>
@@ -10669,22 +10718,22 @@
         <v>161</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="I178" s="6" t="s">
         <v>16</v>
@@ -10693,686 +10742,686 @@
         <v>3</v>
       </c>
       <c r="K178" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L178" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" ht="16">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="14" x14ac:dyDescent="0.25">
       <c r="C179" s="21" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D179" s="21" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E179" s="23" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F179" s="29" t="s">
         <v>1054</v>
       </c>
       <c r="G179" s="21" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="H179" s="25" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="K179" s="4" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="L179" s="26" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" ht="16">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="14" x14ac:dyDescent="0.25">
       <c r="C180" s="21" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D180" s="21" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="E180" s="23" t="s">
+        <v>635</v>
+      </c>
+      <c r="F180" s="30" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G180" s="21" t="s">
+        <v>636</v>
+      </c>
+      <c r="H180" s="26" t="s">
+        <v>991</v>
+      </c>
+      <c r="K180" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="L180" s="26" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="C181" s="21" t="s">
+        <v>938</v>
+      </c>
+      <c r="D181" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E181" s="23" t="s">
+        <v>972</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G181" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="H181" s="26" t="s">
+        <v>992</v>
+      </c>
+      <c r="K181" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="L181" s="26" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="C182" s="21" t="s">
+        <v>939</v>
+      </c>
+      <c r="D182" s="21" t="s">
+        <v>620</v>
+      </c>
+      <c r="E182" s="23" t="s">
+        <v>973</v>
+      </c>
+      <c r="F182" s="30" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G182" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="H182" s="26" t="s">
+        <v>993</v>
+      </c>
+      <c r="K182" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="L182" s="26" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="C183" s="22" t="s">
         <v>645</v>
       </c>
-      <c r="F180" s="30" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G180" s="21" t="s">
-        <v>646</v>
-      </c>
-      <c r="H180" s="26" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K180" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="L180" s="26" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" ht="16">
-      <c r="C181" s="21" t="s">
-        <v>949</v>
-      </c>
-      <c r="D181" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="E181" s="23" t="s">
-        <v>983</v>
-      </c>
-      <c r="F181" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G181" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="H181" s="26" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K181" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="L181" s="26" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" ht="16">
-      <c r="C182" s="21" t="s">
-        <v>950</v>
-      </c>
-      <c r="D182" s="21" t="s">
-        <v>630</v>
-      </c>
-      <c r="E182" s="23" t="s">
-        <v>984</v>
-      </c>
-      <c r="F182" s="30" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G182" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="H182" s="26" t="s">
-        <v>1004</v>
-      </c>
-      <c r="K182" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="L182" s="26" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" ht="16">
-      <c r="C183" s="22" t="s">
-        <v>655</v>
-      </c>
       <c r="D183" s="22" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="E183" s="24" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="F183" s="30" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="G183" s="22" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="H183" s="27" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="K183" s="4" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="L183" s="27" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" ht="16">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="14" x14ac:dyDescent="0.25">
       <c r="C184" s="21" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="D184" s="21" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E184" s="23" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="F184" s="29" t="s">
         <v>1054</v>
       </c>
       <c r="G184" s="21" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="H184" s="26" t="s">
+        <v>995</v>
+      </c>
+      <c r="K184" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="L184" s="26" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="C185" s="22" t="s">
+        <v>941</v>
+      </c>
+      <c r="D185" s="22" t="s">
+        <v>953</v>
+      </c>
+      <c r="E185" s="24" t="s">
+        <v>976</v>
+      </c>
+      <c r="F185" s="30" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G185" s="22" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H185" s="27" t="s">
+        <v>996</v>
+      </c>
+      <c r="K185" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="L185" s="27" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="C186" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="D186" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="E186" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="F186" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G186" s="21" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H186" s="26" t="s">
+        <v>997</v>
+      </c>
+      <c r="K186" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="L186" s="26" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="C187" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D187" s="21" t="s">
+        <v>954</v>
+      </c>
+      <c r="E187" s="23" t="s">
+        <v>977</v>
+      </c>
+      <c r="F187" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G187" s="21" t="s">
+        <v>963</v>
+      </c>
+      <c r="H187" s="26" t="s">
+        <v>998</v>
+      </c>
+      <c r="K187" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="L187" s="26" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="C188" s="21" t="s">
+        <v>942</v>
+      </c>
+      <c r="D188" s="21" t="s">
+        <v>955</v>
+      </c>
+      <c r="E188" s="23" t="s">
+        <v>978</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G188" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H188" s="26" t="s">
+        <v>999</v>
+      </c>
+      <c r="K188" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="L188" s="26" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="C189" s="21" t="s">
+        <v>943</v>
+      </c>
+      <c r="D189" s="21" t="s">
+        <v>956</v>
+      </c>
+      <c r="E189" s="23" t="s">
+        <v>979</v>
+      </c>
+      <c r="F189" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G189" s="21" t="s">
+        <v>964</v>
+      </c>
+      <c r="H189" s="26" t="s">
+        <v>1000</v>
+      </c>
+      <c r="K189" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="L189" s="26" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="C190" s="21" t="s">
+        <v>944</v>
+      </c>
+      <c r="D190" s="21" t="s">
+        <v>957</v>
+      </c>
+      <c r="E190" s="23" t="s">
+        <v>980</v>
+      </c>
+      <c r="F190" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G190" s="21" t="s">
+        <v>661</v>
+      </c>
+      <c r="H190" s="26" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K190" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="L190" s="26" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="C191" s="21" t="s">
+        <v>945</v>
+      </c>
+      <c r="D191" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="E191" s="23" t="s">
+        <v>981</v>
+      </c>
+      <c r="F191" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G191" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H191" s="26" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K191" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="L191" s="26" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="C192" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D192" s="21" t="s">
+        <v>958</v>
+      </c>
+      <c r="E192" s="23" t="s">
+        <v>982</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="G192" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="H192" s="26" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K192" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="L192" s="26" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="193" spans="3:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="C193" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="D193" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="E193" s="23" t="s">
+        <v>605</v>
+      </c>
+      <c r="F193" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G193" s="21" t="s">
+        <v>965</v>
+      </c>
+      <c r="H193" s="26" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K193" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="L193" s="26" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="194" spans="3:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="C194" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="D194" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="E194" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G194" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="H194" s="26" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K194" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="L194" s="26" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="195" spans="3:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="C195" s="21" t="s">
+        <v>946</v>
+      </c>
+      <c r="D195" s="21" t="s">
+        <v>959</v>
+      </c>
+      <c r="E195" s="23" t="s">
+        <v>983</v>
+      </c>
+      <c r="F195" s="28" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G195" s="21" t="s">
+        <v>966</v>
+      </c>
+      <c r="H195" s="26" t="s">
         <v>1006</v>
       </c>
-      <c r="K184" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="L184" s="26" t="s">
+      <c r="K195" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="L195" s="26" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="16">
-      <c r="C185" s="22" t="s">
-        <v>952</v>
-      </c>
-      <c r="D185" s="22" t="s">
-        <v>964</v>
-      </c>
-      <c r="E185" s="24" t="s">
-        <v>987</v>
-      </c>
-      <c r="F185" s="30" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G185" s="22" t="s">
-        <v>1055</v>
-      </c>
-      <c r="H185" s="27" t="s">
+    <row r="196" spans="3:12" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="C196" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="D196" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="E196" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="G196" s="21" t="s">
+        <v>967</v>
+      </c>
+      <c r="H196" s="26" t="s">
         <v>1007</v>
       </c>
-      <c r="K185" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="L185" s="27" t="s">
+      <c r="K196" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="L196" s="26" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="16">
-      <c r="C186" s="21" t="s">
-        <v>462</v>
-      </c>
-      <c r="D186" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="E186" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="F186" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G186" s="21" t="s">
-        <v>1056</v>
-      </c>
-      <c r="H186" s="26" t="s">
+    <row r="197" spans="3:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="C197" s="21" t="s">
+        <v>947</v>
+      </c>
+      <c r="D197" s="21" t="s">
+        <v>960</v>
+      </c>
+      <c r="E197" s="23" t="s">
+        <v>984</v>
+      </c>
+      <c r="F197" s="32" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G197" s="21" t="s">
+        <v>968</v>
+      </c>
+      <c r="H197" s="26" t="s">
         <v>1008</v>
       </c>
-      <c r="K186" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="L186" s="26" t="s">
+      <c r="K197" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="L197" s="26" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="16">
-      <c r="C187" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D187" s="21" t="s">
-        <v>965</v>
-      </c>
-      <c r="E187" s="23" t="s">
-        <v>988</v>
-      </c>
-      <c r="F187" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G187" s="21" t="s">
-        <v>974</v>
-      </c>
-      <c r="H187" s="26" t="s">
+    <row r="198" spans="3:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="C198" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D198" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E198" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F198" s="28" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G198" s="21" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H198" s="26" t="s">
         <v>1009</v>
       </c>
-      <c r="K187" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="L187" s="26" t="s">
+      <c r="K198" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="L198" s="26" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="16">
-      <c r="C188" s="21" t="s">
-        <v>953</v>
-      </c>
-      <c r="D188" s="21" t="s">
-        <v>966</v>
-      </c>
-      <c r="E188" s="23" t="s">
-        <v>989</v>
-      </c>
-      <c r="F188" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G188" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H188" s="26" t="s">
-        <v>1010</v>
-      </c>
-      <c r="K188" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="L188" s="26" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" ht="16">
-      <c r="C189" s="21" t="s">
-        <v>954</v>
-      </c>
-      <c r="D189" s="21" t="s">
-        <v>967</v>
-      </c>
-      <c r="E189" s="23" t="s">
-        <v>990</v>
-      </c>
-      <c r="F189" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G189" s="21" t="s">
-        <v>975</v>
-      </c>
-      <c r="H189" s="26" t="s">
-        <v>1011</v>
-      </c>
-      <c r="K189" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="L189" s="26" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" ht="16">
-      <c r="C190" s="21" t="s">
-        <v>955</v>
-      </c>
-      <c r="D190" s="21" t="s">
-        <v>968</v>
-      </c>
-      <c r="E190" s="23" t="s">
-        <v>991</v>
-      </c>
-      <c r="F190" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G190" s="21" t="s">
-        <v>671</v>
-      </c>
-      <c r="H190" s="26" t="s">
-        <v>1012</v>
-      </c>
-      <c r="K190" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="L190" s="26" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" ht="16">
-      <c r="C191" s="21" t="s">
-        <v>956</v>
-      </c>
-      <c r="D191" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="E191" s="23" t="s">
-        <v>992</v>
-      </c>
-      <c r="F191" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G191" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="H191" s="26" t="s">
-        <v>1013</v>
-      </c>
-      <c r="K191" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="L191" s="26" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" ht="16">
-      <c r="C192" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="D192" s="21" t="s">
-        <v>969</v>
-      </c>
-      <c r="E192" s="23" t="s">
-        <v>993</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="G192" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="H192" s="26" t="s">
-        <v>1014</v>
-      </c>
-      <c r="K192" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="L192" s="26" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="193" spans="3:12" ht="16">
-      <c r="C193" s="21" t="s">
-        <v>613</v>
-      </c>
-      <c r="D193" s="21" t="s">
-        <v>614</v>
-      </c>
-      <c r="E193" s="23" t="s">
-        <v>615</v>
-      </c>
-      <c r="F193" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G193" s="21" t="s">
-        <v>976</v>
-      </c>
-      <c r="H193" s="26" t="s">
-        <v>1015</v>
-      </c>
-      <c r="K193" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="L193" s="26" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="194" spans="3:12" ht="16">
-      <c r="C194" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="D194" s="21" t="s">
-        <v>459</v>
-      </c>
-      <c r="E194" s="23" t="s">
-        <v>460</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G194" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="H194" s="26" t="s">
-        <v>1016</v>
-      </c>
-      <c r="K194" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="L194" s="26" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="195" spans="3:12" ht="16">
-      <c r="C195" s="21" t="s">
-        <v>957</v>
-      </c>
-      <c r="D195" s="21" t="s">
-        <v>970</v>
-      </c>
-      <c r="E195" s="23" t="s">
-        <v>994</v>
-      </c>
-      <c r="F195" s="28" t="s">
-        <v>1057</v>
-      </c>
-      <c r="G195" s="21" t="s">
-        <v>977</v>
-      </c>
-      <c r="H195" s="26" t="s">
-        <v>1017</v>
-      </c>
-      <c r="K195" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="L195" s="26" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="196" spans="3:12" ht="16">
-      <c r="C196" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="D196" s="21" t="s">
-        <v>481</v>
-      </c>
-      <c r="E196" s="23" t="s">
-        <v>482</v>
-      </c>
-      <c r="F196" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G196" s="21" t="s">
-        <v>978</v>
-      </c>
-      <c r="H196" s="26" t="s">
-        <v>1018</v>
-      </c>
-      <c r="K196" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="L196" s="26" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="197" spans="3:12" ht="16">
-      <c r="C197" s="21" t="s">
-        <v>958</v>
-      </c>
-      <c r="D197" s="21" t="s">
-        <v>971</v>
-      </c>
-      <c r="E197" s="23" t="s">
-        <v>995</v>
-      </c>
-      <c r="F197" s="32" t="s">
-        <v>1058</v>
-      </c>
-      <c r="G197" s="21" t="s">
-        <v>979</v>
-      </c>
-      <c r="H197" s="26" t="s">
-        <v>1019</v>
-      </c>
-      <c r="K197" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="L197" s="26" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="198" spans="3:12" ht="16">
-      <c r="C198" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D198" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E198" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F198" t="s">
-        <v>340</v>
-      </c>
-      <c r="G198" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H198" s="26" t="s">
-        <v>1020</v>
-      </c>
-      <c r="K198" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="L198" s="26" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="199" spans="3:12" ht="16">
+    <row r="199" spans="3:12" ht="14" x14ac:dyDescent="0.25">
       <c r="C199" s="22" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D199" s="22" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="E199" s="24" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="F199" s="29" t="s">
         <v>1054</v>
       </c>
       <c r="G199" s="22" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="H199" s="27" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="K199" s="4" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="L199" s="27" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="200" spans="3:12" ht="16">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="200" spans="3:12" ht="14" x14ac:dyDescent="0.25">
       <c r="C200" s="21" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="D200" s="21" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="E200" s="23" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G200" s="21" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="H200" s="26" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="K200" s="4" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="L200" s="26" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="201" spans="3:12" ht="16">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="201" spans="3:12" ht="14" x14ac:dyDescent="0.25">
       <c r="C201" s="22" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="D201" s="22" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
       <c r="E201" s="24" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="F201" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G201" s="22" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="H201" s="27" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="K201" s="4" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="L201" s="27" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="202" spans="3:12" ht="16">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="202" spans="3:12" ht="14" x14ac:dyDescent="0.25">
       <c r="C202" s="22" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="D202" s="22" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="E202" s="24" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="F202" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G202" s="22" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="H202" s="27" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="K202" s="4" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="L202" s="27" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="203" spans="3:12" ht="16">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="203" spans="3:12" ht="14" x14ac:dyDescent="0.25">
       <c r="C203" s="21" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="D203" s="21" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="E203" s="23" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="F203" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G203" s="21" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="H203" s="26" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="K203" s="4" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="L203" s="26" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="204" spans="3:12" ht="16">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="204" spans="3:12" ht="14" x14ac:dyDescent="0.25">
       <c r="C204" s="21" t="s">
+        <v>951</v>
+      </c>
+      <c r="D204" s="21" t="s">
         <v>962</v>
       </c>
-      <c r="D204" s="21" t="s">
-        <v>973</v>
-      </c>
       <c r="E204" s="23" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G204" s="21" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="H204" s="26" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="K204" s="4" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="L204" s="26" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
     </row>
   </sheetData>
@@ -11463,8 +11512,15 @@
     <hyperlink ref="L202" r:id="rId83" xr:uid="{4DDE8E04-E2D4-9449-83B9-5793828B7884}"/>
     <hyperlink ref="L203" r:id="rId84" xr:uid="{00F26D93-4519-4C4E-8313-352AEEE2C432}"/>
     <hyperlink ref="L204" r:id="rId85" xr:uid="{B9CB8B10-9E8A-F846-B095-274C4806034E}"/>
+    <hyperlink ref="H3" r:id="rId86" xr:uid="{75E23A37-61CE-4F2D-A04C-EB6BF5E3CE84}"/>
+    <hyperlink ref="H4" r:id="rId87" xr:uid="{F94A68FF-22AF-45BF-A52C-1786A60708A6}"/>
+    <hyperlink ref="H7" r:id="rId88" xr:uid="{59D811DE-D54E-471A-9E7A-1E7F9DB968BB}"/>
+    <hyperlink ref="H10" r:id="rId89" xr:uid="{29EF42A8-C66C-4F9F-8BD8-A620FAA329C3}"/>
+    <hyperlink ref="H35" r:id="rId90" xr:uid="{26052822-281A-4105-84B6-893516D8FF47}"/>
+    <hyperlink ref="H119" r:id="rId91" xr:uid="{FCA0526D-6C27-4847-8A8A-7B3D48231EBB}"/>
+    <hyperlink ref="L49" r:id="rId92" xr:uid="{77EDA4DC-2620-47BD-AF13-76E86C5A6B31}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId86"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId93"/>
 </worksheet>
 </file>
--- a/tools/commiteeMembers.xlsx
+++ b/tools/commiteeMembers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156">
   <si>
     <t>#</t>
   </si>
@@ -253,7 +253,7 @@
     <t>timofey.bryksin@jetbrains.com</t>
   </si>
   <si>
-    <t>Russia</t>
+    <t>Cyprus</t>
   </si>
   <si>
     <t>JetBrains Research</t>
@@ -902,6 +902,9 @@
     <t>yaroslav.golubev@jetbrains.com</t>
   </si>
   <si>
+    <t>Serbia</t>
+  </si>
+  <si>
     <t>https://research.jetbrains.org/researchers/areyde</t>
   </si>
   <si>
@@ -1346,9 +1349,6 @@
     <t>gkapi@ucy.ac.cy</t>
   </si>
   <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
     <t>University of Cyprus</t>
   </si>
   <si>
@@ -3249,6 +3249,240 @@
   </si>
   <si>
     <t>https://www.monash.edu/__data/assets/image/0010/2668339/Jiawei-Wang.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohammad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghafari </t>
+  </si>
+  <si>
+    <t>mohammad.ghafari@tu-clausthal.de</t>
+  </si>
+  <si>
+    <t>Technical University of Clausthal</t>
+  </si>
+  <si>
+    <t>https://www.isse.tu-clausthal.de/ueber-uns/team-neu/professoren-und-dozenten/prof-dr-mohammad-ghafari</t>
+  </si>
+  <si>
+    <t>https://www.isse.tu-clausthal.de/fileadmin/_processed_/8/8/csm_Mohammad_Ghafari_71256d2282.jpg</t>
+  </si>
+  <si>
+    <t>Hadil</t>
+  </si>
+  <si>
+    <t>Abukwaik</t>
+  </si>
+  <si>
+    <t>habukwaik@gmail.com</t>
+  </si>
+  <si>
+    <t>BASF</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/hadil-abukwaik/</t>
+  </si>
+  <si>
+    <t>Industrial Track</t>
+  </si>
+  <si>
+    <t>https://media-exp1.licdn.com/dms/image/C5603AQG-9F3An3vJtA/profile-displayphoto-shrink_400_400/0/1521729529648?e=1671062400&amp;v=beta&amp;t=oN8mX3G-1sSErzizPHf2BMhACXkQsxr43oCL-MLA_x0</t>
+  </si>
+  <si>
+    <t>pengxin@fudan.edu.cn</t>
+  </si>
+  <si>
+    <t>https://cspengxin.github.io/</t>
+  </si>
+  <si>
+    <t>https://cspengxin.github.io/img/ProPeng_1.jpg</t>
+  </si>
+  <si>
+    <t>Jie M.</t>
+  </si>
+  <si>
+    <t>jie.zhang@kcl.ac.uk</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>UCL</t>
+  </si>
+  <si>
+    <t>https://sites.google.com/view/jie-zhang/home</t>
+  </si>
+  <si>
+    <t>https://lh4.googleusercontent.com/W_a55zCGEFGHr9EJt8AxdLjW9o1-_FA2BXvcbGVHYcnTorT5_SSLgfGjHKUd0f2aUMSXMPLk5MkY_3wGDwMKN57BYR9u79smv4Hln0qD2fvSzsNM=w1280</t>
+  </si>
+  <si>
+    <t>Hanzhang</t>
+  </si>
+  <si>
+    <t>hanzhang.wang@walmart.com</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/hanzhangw/</t>
+  </si>
+  <si>
+    <t>https://media-exp1.licdn.com/dms/image/C4E03AQGvjH0xseOpzw/profile-displayphoto-shrink_400_400/0/1517559358983?e=1671062400&amp;v=beta&amp;t=IV7SuQRApRRFFzkHsL4XjshqmsKCOzzme0FKWUyI9y4</t>
+  </si>
+  <si>
+    <t>wanglu@xidian.edu.cn</t>
+  </si>
+  <si>
+    <t>School of Computer Science and Technology, Xidian University</t>
+  </si>
+  <si>
+    <t>https://faculty.xidian.edu.cn/wanglu/zh_CN/index.htm</t>
+  </si>
+  <si>
+    <t>https://faculty.xidian.edu.cn/__local/A/D3/A4/D80DA5878A9587401DFDEA9A7F8_A07E41BD_A0C271.png</t>
+  </si>
+  <si>
+    <t>Yijian</t>
+  </si>
+  <si>
+    <t>wuyijian@fudan.edu.cn</t>
+  </si>
+  <si>
+    <t>https://software.fudan.edu.cn/b5/bf/c29336a308671/page.htm</t>
+  </si>
+  <si>
+    <t>https://software.fudan.edu.cn/_upload/article/images/dd/51/04038c45437eaa50212f87759c1f/1d7fd4d5-79c5-46f3-8b35-bc7566abdbde_s.jpg</t>
+  </si>
+  <si>
+    <t>Abufouda</t>
+  </si>
+  <si>
+    <t>mohammed.abufouda@basf.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mohammedabufouda/?originalSubdomain=de</t>
+  </si>
+  <si>
+    <t>https://media-exp1.licdn.com/dms/image/C4D03AQFcMtMsNJIZTA/profile-displayphoto-shrink_400_400/0/1516561391055?e=1671062400&amp;v=beta&amp;t=8zcnIfFmFEIPqe7wvYZzjdIEd4TJcKvJi9W1WwxLDbo</t>
+  </si>
+  <si>
+    <t>Chengcheng</t>
+  </si>
+  <si>
+    <t>Wan</t>
+  </si>
+  <si>
+    <t>cwan@uchicago.edu</t>
+  </si>
+  <si>
+    <t>University of Chicago</t>
+  </si>
+  <si>
+    <t>http://people.cs.uchicago.edu/~cwan/</t>
+  </si>
+  <si>
+    <t>http://people.cs.uchicago.edu/~cwan/img/profile3.png</t>
+  </si>
+  <si>
+    <t>kay@microsoft.com</t>
+  </si>
+  <si>
+    <t>Microsoft Research Asia</t>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/en-us/research/people/kay/</t>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/en-us/research/uploads/prod/2020/07/ID-photo.jpg</t>
+  </si>
+  <si>
+    <t>Guangtai</t>
+  </si>
+  <si>
+    <t>liangguangtai@huawei.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/guangtai-liang-a162b625/</t>
+  </si>
+  <si>
+    <t>Takashi</t>
+  </si>
+  <si>
+    <t>Kobayashi</t>
+  </si>
+  <si>
+    <t>tkobaya@cs.titech.ac.jp</t>
+  </si>
+  <si>
+    <t>http://www.sa.cs.titech.ac.jp/~tkobaya/</t>
+  </si>
+  <si>
+    <t>http://www.sa.cs.titech.ac.jp/~tkobaya/images/tkobaya2011s.jpg</t>
+  </si>
+  <si>
+    <t>Pandita</t>
+  </si>
+  <si>
+    <t>rahulpandita@gmail.com</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>http://rahulpandita.me/</t>
+  </si>
+  <si>
+    <t>https://avatars.githubusercontent.com/u/4573851?v=4</t>
+  </si>
+  <si>
+    <t>Xiaobing</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>sundomore@163.com</t>
+  </si>
+  <si>
+    <t>Yangzhou University</t>
+  </si>
+  <si>
+    <t>https://risame.github.io/sun/project.html</t>
+  </si>
+  <si>
+    <t>Di</t>
+  </si>
+  <si>
+    <t>pengd@cse.unsw.edu.au</t>
+  </si>
+  <si>
+    <t>The University of New South Wales</t>
+  </si>
+  <si>
+    <t>https://pengd.github.io/</t>
+  </si>
+  <si>
+    <t>https://pengd.github.io/images/profile.png</t>
+  </si>
+  <si>
+    <t>Yuan</t>
+  </si>
+  <si>
+    <t>Tian</t>
+  </si>
+  <si>
+    <t>y.tian@queensu.ca</t>
+  </si>
+  <si>
+    <t>School of Computing, Queen's University</t>
+  </si>
+  <si>
+    <t>https://sophiaytian.com/</t>
+  </si>
+  <si>
+    <t>https://sophiaytian.com/img/about/600x600.jpg</t>
   </si>
 </sst>
 </file>
@@ -3256,12 +3490,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3307,38 +3541,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3359,9 +3581,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3376,14 +3605,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3399,9 +3643,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3412,23 +3671,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3442,15 +3687,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3477,7 +3729,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFE5EDFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE4F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9F6EA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EDE4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3489,43 +3759,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3543,7 +3777,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3555,13 +3885,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3573,67 +3927,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3643,26 +3937,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3708,17 +3984,70 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3728,6 +4057,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3748,6 +4086,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -3757,6 +4110,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3776,182 +4144,158 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4037,9 +4381,71 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4427,25 +4833,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L214"/>
+  <dimension ref="A1:L230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="E218" sqref="E218"/>
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="A216" sqref="A216:L230"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4553571428571" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="32.4553571428571" customWidth="1"/>
-    <col min="6" max="6" width="16.4553571428571" customWidth="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="60" customWidth="1"/>
-    <col min="8" max="8" width="134.455357142857" customWidth="1"/>
-    <col min="9" max="9" width="25.6339285714286" customWidth="1"/>
-    <col min="10" max="10" width="18.3660714285714" customWidth="1"/>
+    <col min="8" max="8" width="134.5" customWidth="1"/>
+    <col min="9" max="9" width="25.6607142857143" customWidth="1"/>
+    <col min="10" max="10" width="18.3303571428571" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="98.4553571428571" customWidth="1"/>
+    <col min="12" max="12" width="98.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="46.05" spans="1:12">
@@ -6365,13 +6771,13 @@
         <v>294</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>80</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I51" s="11" t="s">
         <v>18</v>
@@ -6383,7 +6789,7 @@
         <v>19</v>
       </c>
       <c r="L51" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -6394,22 +6800,22 @@
         <v>47</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>18</v>
@@ -6421,7 +6827,7 @@
         <v>19</v>
       </c>
       <c r="L52" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -6432,22 +6838,22 @@
         <v>48</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>229</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>18</v>
@@ -6459,7 +6865,7 @@
         <v>19</v>
       </c>
       <c r="L53" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -6470,22 +6876,22 @@
         <v>49</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>18</v>
@@ -6497,7 +6903,7 @@
         <v>26</v>
       </c>
       <c r="L54" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -6508,22 +6914,22 @@
         <v>50</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>159</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I55" s="11" t="s">
         <v>18</v>
@@ -6535,7 +6941,7 @@
         <v>26</v>
       </c>
       <c r="L55" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -6546,22 +6952,22 @@
         <v>51</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>52</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>18</v>
@@ -6573,7 +6979,7 @@
         <v>19</v>
       </c>
       <c r="L56" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -6584,22 +6990,22 @@
         <v>52</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>172</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I57" s="11" t="s">
         <v>18</v>
@@ -6611,7 +7017,7 @@
         <v>19</v>
       </c>
       <c r="L57" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -6622,22 +7028,22 @@
         <v>53</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>159</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>18</v>
@@ -6649,7 +7055,7 @@
         <v>19</v>
       </c>
       <c r="L58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -6660,22 +7066,22 @@
         <v>54</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>145</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I59" s="11" t="s">
         <v>18</v>
@@ -6687,7 +7093,7 @@
         <v>19</v>
       </c>
       <c r="L59" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -6698,22 +7104,22 @@
         <v>55</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>18</v>
@@ -6725,7 +7131,7 @@
         <v>19</v>
       </c>
       <c r="L60" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -6736,22 +7142,22 @@
         <v>55</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>38</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I61" s="11" t="s">
         <v>18</v>
@@ -6763,7 +7169,7 @@
         <v>26</v>
       </c>
       <c r="L61" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -6774,22 +7180,22 @@
         <v>56</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>186</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>18</v>
@@ -6801,7 +7207,7 @@
         <v>26</v>
       </c>
       <c r="L62" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -6812,22 +7218,22 @@
         <v>57</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I63" s="11" t="s">
         <v>18</v>
@@ -6839,7 +7245,7 @@
         <v>26</v>
       </c>
       <c r="L63" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -6850,22 +7256,22 @@
         <v>58</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I64" s="9" t="s">
         <v>18</v>
@@ -6877,7 +7283,7 @@
         <v>19</v>
       </c>
       <c r="L64" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -6888,22 +7294,22 @@
         <v>59</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>145</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I65" s="11" t="s">
         <v>18</v>
@@ -6915,7 +7321,7 @@
         <v>19</v>
       </c>
       <c r="L65" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -6929,19 +7335,19 @@
         <v>156</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I66" s="9" t="s">
         <v>18</v>
@@ -6953,7 +7359,7 @@
         <v>26</v>
       </c>
       <c r="L66" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -6964,22 +7370,22 @@
         <v>61</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>159</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I67" s="11" t="s">
         <v>18</v>
@@ -6991,7 +7397,7 @@
         <v>19</v>
       </c>
       <c r="L67" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -7002,13 +7408,13 @@
         <v>62</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>38</v>
@@ -7017,7 +7423,7 @@
         <v>39</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I68" s="9" t="s">
         <v>18</v>
@@ -7029,7 +7435,7 @@
         <v>19</v>
       </c>
       <c r="L68" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -7040,22 +7446,22 @@
         <v>63</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>159</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I69" s="11" t="s">
         <v>18</v>
@@ -7067,7 +7473,7 @@
         <v>26</v>
       </c>
       <c r="L69" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -7078,22 +7484,22 @@
         <v>64</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>145</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I70" s="9" t="s">
         <v>18</v>
@@ -7105,7 +7511,7 @@
         <v>19</v>
       </c>
       <c r="L70" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -7116,13 +7522,13 @@
         <v>65</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>38</v>
@@ -7131,7 +7537,7 @@
         <v>130</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I71" s="11" t="s">
         <v>18</v>
@@ -7143,7 +7549,7 @@
         <v>19</v>
       </c>
       <c r="L71" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -7154,22 +7560,22 @@
         <v>66</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I72" s="9" t="s">
         <v>18</v>
@@ -7181,7 +7587,7 @@
         <v>26</v>
       </c>
       <c r="L72" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -7192,22 +7598,22 @@
         <v>67</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I73" s="11" t="s">
         <v>18</v>
@@ -7219,7 +7625,7 @@
         <v>19</v>
       </c>
       <c r="L73" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" spans="1:12">
@@ -7230,22 +7636,22 @@
         <v>68</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F74" s="14" t="s">
         <v>38</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I74" s="16" t="s">
         <v>18</v>
@@ -7257,7 +7663,7 @@
         <v>26</v>
       </c>
       <c r="L74" s="17" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -7268,13 +7674,13 @@
         <v>69</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>38</v>
@@ -7283,7 +7689,7 @@
         <v>271</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I75" s="11" t="s">
         <v>18</v>
@@ -7295,7 +7701,7 @@
         <v>19</v>
       </c>
       <c r="L75" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -7306,22 +7712,22 @@
         <v>70</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>145</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>18</v>
@@ -7333,7 +7739,7 @@
         <v>19</v>
       </c>
       <c r="L76" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -7344,22 +7750,22 @@
         <v>71</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I77" s="11" t="s">
         <v>18</v>
@@ -7371,7 +7777,7 @@
         <v>26</v>
       </c>
       <c r="L77" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -7382,16 +7788,16 @@
         <v>72</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>444</v>
@@ -7470,7 +7876,7 @@
         <v>186</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>457</v>
@@ -7619,7 +8025,7 @@
         <v>478</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>80</v>
@@ -7657,7 +8063,7 @@
         <v>478</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>80</v>
@@ -7698,7 +8104,7 @@
         <v>186</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>484</v>
@@ -8265,10 +8671,10 @@
         <v>554</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>555</v>
@@ -8303,10 +8709,10 @@
         <v>554</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>555</v>
@@ -9119,7 +9525,7 @@
         <v>19</v>
       </c>
       <c r="L123" s="19" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -9329,7 +9735,7 @@
         <v>712</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>713</v>
@@ -9405,10 +9811,10 @@
         <v>724</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>725</v>
@@ -9443,7 +9849,7 @@
         <v>729</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>730</v>
@@ -10577,7 +10983,7 @@
         <v>881</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>882</v>
@@ -10924,7 +11330,7 @@
         <v>145</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H171" s="5" t="s">
         <v>919</v>
@@ -11064,7 +11470,7 @@
         <v>161</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>928</v>
@@ -11160,7 +11566,7 @@
         <v>186</v>
       </c>
       <c r="G178" s="20" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H178" s="26" t="s">
         <v>955</v>
@@ -11212,7 +11618,7 @@
         <v>38</v>
       </c>
       <c r="G180" s="21" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H180" s="28" t="s">
         <v>963</v>
@@ -11229,7 +11635,7 @@
         <v>965</v>
       </c>
       <c r="D181" s="20" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E181" s="22" t="s">
         <v>966</v>
@@ -11411,7 +11817,7 @@
         <v>996</v>
       </c>
       <c r="D188" s="20" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E188" s="22" t="s">
         <v>997</v>
@@ -11434,7 +11840,7 @@
     </row>
     <row r="189" ht="14" spans="3:12">
       <c r="C189" s="20" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D189" s="20" t="s">
         <v>1000</v>
@@ -11536,7 +11942,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="193" ht="16" spans="3:12">
+    <row r="193" ht="14" spans="3:12">
       <c r="C193" s="20" t="s">
         <v>624</v>
       </c>
@@ -11572,7 +11978,7 @@
       <c r="E194" s="22" t="s">
         <v>1014</v>
       </c>
-      <c r="F194" s="31" t="s">
+      <c r="F194" s="41" t="s">
         <v>31</v>
       </c>
       <c r="G194" s="20" t="s">
@@ -11871,7 +12277,7 @@
         <v>38</v>
       </c>
       <c r="G205" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H205" t="s">
         <v>1048</v>
@@ -11888,13 +12294,13 @@
     </row>
     <row r="206" spans="3:12">
       <c r="C206" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D206" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E206" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F206" t="s">
         <v>38</v>
@@ -11903,7 +12309,7 @@
         <v>130</v>
       </c>
       <c r="H206" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I206" t="s">
         <v>18</v>
@@ -11912,7 +12318,7 @@
         <v>1043</v>
       </c>
       <c r="L206" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="207" spans="3:12">
@@ -12142,6 +12548,465 @@
       </c>
       <c r="L214" t="s">
         <v>1077</v>
+      </c>
+    </row>
+    <row r="215" ht="12.75" spans="3:12">
+      <c r="C215" s="30" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D215" s="30" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E215" s="42" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F215" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G215" s="30" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H215" s="42" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I215" t="s">
+        <v>18</v>
+      </c>
+      <c r="K215" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="L215" s="42" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="216" ht="13" spans="3:12">
+      <c r="C216" s="31" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D216" s="32" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E216" s="43" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F216" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="G216" s="31" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H216" s="45" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I216" s="44" t="s">
+        <v>1042</v>
+      </c>
+      <c r="K216" s="44" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L216" s="54" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="217" ht="13" spans="3:12">
+      <c r="C217" s="33" t="s">
+        <v>843</v>
+      </c>
+      <c r="D217" s="34" t="s">
+        <v>991</v>
+      </c>
+      <c r="E217" s="46" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F217" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G217" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="H217" s="48" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I217" s="47" t="s">
+        <v>1042</v>
+      </c>
+      <c r="K217" s="44" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L217" s="55" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="218" ht="13" spans="3:12">
+      <c r="C218" s="35" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D218" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="E218" s="49" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F218" s="47" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G218" s="35" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H218" s="50" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I218" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K218" s="44" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L218" s="55" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="219" ht="13" spans="3:12">
+      <c r="C219" s="37" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D219" s="38" t="s">
+        <v>811</v>
+      </c>
+      <c r="E219" s="51" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F219" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="G219" s="37" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H219" s="52" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I219" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K219" s="44" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L219" s="55" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="220" ht="13" spans="3:12">
+      <c r="C220" s="35" t="s">
+        <v>848</v>
+      </c>
+      <c r="D220" s="36" t="s">
+        <v>811</v>
+      </c>
+      <c r="E220" s="49" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F220" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G220" s="35" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H220" s="50" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I220" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K220" s="44" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L220" s="55" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="221" ht="13" spans="3:12">
+      <c r="C221" s="37" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D221" s="38" t="s">
+        <v>839</v>
+      </c>
+      <c r="E221" s="51" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F221" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G221" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H221" s="52" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I221" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K221" s="44" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L221" s="55" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="222" ht="13" spans="3:12">
+      <c r="C222" s="35" t="s">
+        <v>744</v>
+      </c>
+      <c r="D222" s="36" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E222" s="49" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F222" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="G222" s="35" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H222" s="50" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I222" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K222" s="44" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L222" s="55" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="223" ht="13" spans="3:12">
+      <c r="C223" s="37" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D223" s="38" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E223" s="51" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F223" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="G223" s="37" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H223" s="52" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I223" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K223" s="44" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L223" s="55" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="224" ht="13" spans="3:12">
+      <c r="C224" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="D224" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="E224" s="49" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F224" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G224" s="35" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H224" s="50" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I224" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K224" s="44" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L224" s="55" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="225" ht="13" spans="3:12">
+      <c r="C225" s="37" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D225" s="38" t="s">
+        <v>992</v>
+      </c>
+      <c r="E225" s="51" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F225" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G225" s="37" t="s">
+        <v>845</v>
+      </c>
+      <c r="H225" s="52" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I225" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K225" s="44" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L225" s="55"/>
+    </row>
+    <row r="226" ht="13" spans="3:12">
+      <c r="C226" s="35" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D226" s="36" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E226" s="49" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F226" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="G226" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="H226" s="50" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I226" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K226" s="44" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L226" s="55" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="227" ht="13" spans="3:12">
+      <c r="C227" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="D227" s="38" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E227" s="51" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F227" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="G227" s="37" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H227" s="52" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I227" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K227" s="44" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L227" s="55" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="228" ht="13" spans="3:11">
+      <c r="C228" s="35" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D228" s="36" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E228" s="49" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F228" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G228" s="35" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H228" s="50" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I228" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K228" s="44" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="229" ht="13" spans="3:12">
+      <c r="C229" s="37" t="s">
+        <v>991</v>
+      </c>
+      <c r="D229" s="38" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E229" s="51" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F229" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="G229" s="37" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H229" s="52" t="s">
+        <v>1148</v>
+      </c>
+      <c r="I229" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K229" s="44" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L229" s="55" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="230" ht="13.75" spans="3:12">
+      <c r="C230" s="39" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D230" s="40" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E230" s="40" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F230" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G230" s="39" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H230" s="50" t="s">
+        <v>1154</v>
+      </c>
+      <c r="I230" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K230" s="44" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L230" s="55" t="s">
+        <v>1155</v>
       </c>
     </row>
   </sheetData>
@@ -12238,6 +13103,51 @@
     <hyperlink ref="H35" r:id="rId90" display="https://mjdecker.github.io/index.html"/>
     <hyperlink ref="H118" r:id="rId91" display="https://dibt.unimol.it/staff/oliveto/"/>
     <hyperlink ref="L49" r:id="rId92" display="https://cuiyungao.github.io/images/cuiyun.jpg"/>
+    <hyperlink ref="E215" r:id="rId93" display="mohammad.ghafari@tu-clausthal.de"/>
+    <hyperlink ref="L215" r:id="rId94" display="https://www.isse.tu-clausthal.de/fileadmin/_processed_/8/8/csm_Mohammad_Ghafari_71256d2282.jpg"/>
+    <hyperlink ref="H215" r:id="rId95" display="https://www.isse.tu-clausthal.de/ueber-uns/team-neu/professoren-und-dozenten/prof-dr-mohammad-ghafari"/>
+    <hyperlink ref="E216" r:id="rId96" display="habukwaik@gmail.com"/>
+    <hyperlink ref="E217" r:id="rId97" display="pengxin@fudan.edu.cn"/>
+    <hyperlink ref="E218" r:id="rId98" display="jie.zhang@kcl.ac.uk"/>
+    <hyperlink ref="E219" r:id="rId99" display="hanzhang.wang@walmart.com"/>
+    <hyperlink ref="E221" r:id="rId100" display="wuyijian@fudan.edu.cn"/>
+    <hyperlink ref="E220" r:id="rId101" display="wanglu@xidian.edu.cn"/>
+    <hyperlink ref="E222" r:id="rId102" display="mohammed.abufouda@basf.com"/>
+    <hyperlink ref="E224" r:id="rId103" display="kay@microsoft.com"/>
+    <hyperlink ref="E223" r:id="rId104" display="cwan@uchicago.edu"/>
+    <hyperlink ref="E225" r:id="rId105" display="liangguangtai@huawei.com"/>
+    <hyperlink ref="E228" r:id="rId106" display="sundomore@163.com"/>
+    <hyperlink ref="E227" r:id="rId107" display="rahulpandita@gmail.com"/>
+    <hyperlink ref="E226" r:id="rId108" display="tkobaya@cs.titech.ac.jp"/>
+    <hyperlink ref="E229" r:id="rId109" display="pengd@cse.unsw.edu.au"/>
+    <hyperlink ref="L216" r:id="rId110" display="https://media-exp1.licdn.com/dms/image/C5603AQG-9F3An3vJtA/profile-displayphoto-shrink_400_400/0/1521729529648?e=1671062400&amp;v=beta&amp;t=oN8mX3G-1sSErzizPHf2BMhACXkQsxr43oCL-MLA_x0"/>
+    <hyperlink ref="H216" r:id="rId111" display="https://www.linkedin.com/in/hadil-abukwaik/"/>
+    <hyperlink ref="H217" r:id="rId112" display="https://cspengxin.github.io/"/>
+    <hyperlink ref="L217" r:id="rId113" display="https://cspengxin.github.io/img/ProPeng_1.jpg"/>
+    <hyperlink ref="L218" r:id="rId114" display="https://lh4.googleusercontent.com/W_a55zCGEFGHr9EJt8AxdLjW9o1-_FA2BXvcbGVHYcnTorT5_SSLgfGjHKUd0f2aUMSXMPLk5MkY_3wGDwMKN57BYR9u79smv4Hln0qD2fvSzsNM=w1280"/>
+    <hyperlink ref="H219" r:id="rId115" display="https://www.linkedin.com/in/hanzhangw/"/>
+    <hyperlink ref="H218" r:id="rId116" display="https://sites.google.com/view/jie-zhang/home"/>
+    <hyperlink ref="L219" r:id="rId117" display="https://media-exp1.licdn.com/dms/image/C4E03AQGvjH0xseOpzw/profile-displayphoto-shrink_400_400/0/1517559358983?e=1671062400&amp;v=beta&amp;t=IV7SuQRApRRFFzkHsL4XjshqmsKCOzzme0FKWUyI9y4"/>
+    <hyperlink ref="H220" r:id="rId118" display="https://faculty.xidian.edu.cn/wanglu/zh_CN/index.htm"/>
+    <hyperlink ref="L220" r:id="rId119" display="https://faculty.xidian.edu.cn/__local/A/D3/A4/D80DA5878A9587401DFDEA9A7F8_A07E41BD_A0C271.png"/>
+    <hyperlink ref="H221" r:id="rId120" display="https://software.fudan.edu.cn/b5/bf/c29336a308671/page.htm"/>
+    <hyperlink ref="L221" r:id="rId121" display="https://software.fudan.edu.cn/_upload/article/images/dd/51/04038c45437eaa50212f87759c1f/1d7fd4d5-79c5-46f3-8b35-bc7566abdbde_s.jpg"/>
+    <hyperlink ref="H222" r:id="rId122" display="https://www.linkedin.com/in/mohammedabufouda/?originalSubdomain=de"/>
+    <hyperlink ref="L222" r:id="rId123" display="https://media-exp1.licdn.com/dms/image/C4D03AQFcMtMsNJIZTA/profile-displayphoto-shrink_400_400/0/1516561391055?e=1671062400&amp;v=beta&amp;t=8zcnIfFmFEIPqe7wvYZzjdIEd4TJcKvJi9W1WwxLDbo"/>
+    <hyperlink ref="H223" r:id="rId124" display="http://people.cs.uchicago.edu/~cwan/"/>
+    <hyperlink ref="L223" r:id="rId125" display="http://people.cs.uchicago.edu/~cwan/img/profile3.png"/>
+    <hyperlink ref="H224" r:id="rId126" display="https://www.microsoft.com/en-us/research/people/kay/"/>
+    <hyperlink ref="L224" r:id="rId127" display="https://www.microsoft.com/en-us/research/uploads/prod/2020/07/ID-photo.jpg"/>
+    <hyperlink ref="H225" r:id="rId128" display="https://www.linkedin.com/in/guangtai-liang-a162b625/"/>
+    <hyperlink ref="H226" r:id="rId129" display="http://www.sa.cs.titech.ac.jp/~tkobaya/"/>
+    <hyperlink ref="L226" r:id="rId130" display="http://www.sa.cs.titech.ac.jp/~tkobaya/images/tkobaya2011s.jpg"/>
+    <hyperlink ref="H227" r:id="rId131" display="http://rahulpandita.me/"/>
+    <hyperlink ref="L227" r:id="rId132" display="https://avatars.githubusercontent.com/u/4573851?v=4"/>
+    <hyperlink ref="H228" r:id="rId133" display="https://risame.github.io/sun/project.html"/>
+    <hyperlink ref="H229" r:id="rId134" display="https://pengd.github.io/"/>
+    <hyperlink ref="L229" r:id="rId135" display="https://pengd.github.io/images/profile.png"/>
+    <hyperlink ref="H230" r:id="rId136" display="https://sophiaytian.com/"/>
+    <hyperlink ref="L230" r:id="rId137" display="https://sophiaytian.com/img/about/600x600.jpg"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
